--- a/nodes_source_analyses/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="0" windowWidth="24840" windowHeight="15040" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1265,7 +1265,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1328,7 +1328,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1363,10 +1363,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1379,7 +1379,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1388,7 +1388,7 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1418,17 +1418,17 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1465,7 +1465,7 @@
     <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1496,6 +1496,7 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2267,7 +2268,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2453,8 +2454,8 @@
   </sheetPr>
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2577,7 +2578,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="140" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="42"/>
@@ -3007,7 +3008,7 @@
       </c>
       <c r="E32" s="102">
         <f>'Research data'!G16</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
@@ -3361,7 +3362,7 @@
   <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3615,8 +3616,7 @@
         <v>106</v>
       </c>
       <c r="G16" s="80">
-        <f>ROUND((G17*G6*1000),2)</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -3633,9 +3633,7 @@
       <c r="F17" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="80">
-        <v>100</v>
-      </c>
+      <c r="G17" s="80"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="73"/>

--- a/nodes_source_analyses/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="13960" yWindow="460" windowWidth="13960" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="12" r:id="rId2"/>
     <sheet name="Research data" sheetId="13" r:id="rId3"/>
     <sheet name="Sources" sheetId="15" r:id="rId4"/>
+    <sheet name="Notes" sheetId="16" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -30,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="163">
   <si>
     <t>Source</t>
   </si>
@@ -348,31 +357,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>We</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>euro/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>KW</t>
     </r>
     <r>
@@ -492,16 +476,159 @@
   <si>
     <t>ETM Library URL</t>
   </si>
+  <si>
+    <t>Quintel WD</t>
+  </si>
+  <si>
+    <t>DHPA</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Phone conversation Peter Wagener notes:</t>
+  </si>
+  <si>
+    <t>201707_Tabel RV WW en koude met warmtepompen</t>
+  </si>
+  <si>
+    <t>0 until more information from DHPA is available</t>
+  </si>
+  <si>
+    <t>storage.volume</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>storage.cost_per_mwh</t>
+  </si>
+  <si>
+    <t>euro/MWh</t>
+  </si>
+  <si>
+    <t>ISSO 72 and Quintel calc</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>https://warmtepomp-weetjes.nl/warmtepomp/buffervat/</t>
+  </si>
+  <si>
+    <t>Warmtepompforum</t>
+  </si>
+  <si>
+    <t>http://www.warmtepompforum.nl/Volumebuffervat.php</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>buffer time</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>output capacity</t>
+  </si>
+  <si>
+    <t>kW output</t>
+  </si>
+  <si>
+    <t>specific capacity water</t>
+  </si>
+  <si>
+    <t>kJ/oC/l</t>
+  </si>
+  <si>
+    <t>temperature difference system</t>
+  </si>
+  <si>
+    <t>oC</t>
+  </si>
+  <si>
+    <t>Educated guess based on various sources</t>
+  </si>
+  <si>
+    <t>volume of buffer</t>
+  </si>
+  <si>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>conversion kJ to kWh</t>
+  </si>
+  <si>
+    <t>kJ to kWh</t>
+  </si>
+  <si>
+    <t>Hot water boiler vessel used as storage device to protect compressor</t>
+  </si>
+  <si>
+    <t>delta T</t>
+  </si>
+  <si>
+    <t>specific heat capacity of water</t>
+  </si>
+  <si>
+    <t>kJ/l</t>
+  </si>
+  <si>
+    <t>kJ/MWh</t>
+  </si>
+  <si>
+    <t>MWh/liter</t>
+  </si>
+  <si>
+    <t>euro/liter</t>
+  </si>
+  <si>
+    <t>https://www.installand.nl/shop/verwarming/warmtepomp/nibe-buffervat-ukv-500-80302</t>
+  </si>
+  <si>
+    <t>Installand</t>
+  </si>
+  <si>
+    <t>costs including VAT</t>
+  </si>
+  <si>
+    <t>costs excluding VAT</t>
+  </si>
+  <si>
+    <t>costs/liter</t>
+  </si>
+  <si>
+    <t>Nefit</t>
+  </si>
+  <si>
+    <t>http://nl.documents2.nefit.nl/download/pdf/file/6720819095.pdf</t>
+  </si>
+  <si>
+    <t>Initial investment (including boiler)</t>
+  </si>
+  <si>
+    <t>Costs for boiler</t>
+  </si>
+  <si>
+    <t>See documentation Households water heater heatpump ground water electricity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -697,6 +824,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1265,7 +1398,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1397,9 +1530,6 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1469,6 +1599,55 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1496,7 +1675,33 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="177" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1757,6 +1962,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1792,7 +2002,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1800,6 +2010,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -1830,8 +2046,203 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>886125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10686733</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13573425" y="4502638"/>
+          <a:ext cx="10753108" cy="1914711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>937845</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6459758</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>172397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13625145" y="6612791"/>
+          <a:ext cx="6474413" cy="2716306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>887307</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5262880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13577147" y="6373707"/>
+          <a:ext cx="5330613" cy="2781646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10591800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13644880" y="9560560"/>
+          <a:ext cx="10591800" cy="1117600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11033760</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13756640" y="10739120"/>
+          <a:ext cx="10922000" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2270,50 +2681,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="48.75" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2322,128 +2733,123 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="86"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="85"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="88" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="87"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="89" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="87" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="90" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="92" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="91" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="93" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="92" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="94" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="93" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="94"/>
+      <c r="C20" s="95" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="97" t="s">
+      <c r="B21" s="94"/>
+      <c r="C21" s="96" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="98" t="s">
+      <c r="B22" s="94"/>
+      <c r="C22" s="97" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="95"/>
-      <c r="C23" s="99" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="94"/>
+      <c r="C23" s="98" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2452,63 +2858,63 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K48"/>
+  <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="46.125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="165"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="136"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="139"/>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="169"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="171"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2519,12 +2925,12 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
-      <c r="B7" s="100"/>
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="99"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="100" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2538,9 +2944,9 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="107"/>
-    </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+      <c r="J7" s="106"/>
+    </row>
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2551,10 +2957,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2564,10 +2970,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
-      <c r="C10" s="125" t="s">
-        <v>108</v>
+      <c r="C10" s="124" t="s">
+        <v>107</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2578,15 +2984,15 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="140" t="s">
+      <c r="I10" s="130" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
-      <c r="C11" s="125" t="s">
-        <v>109</v>
+      <c r="C11" s="124" t="s">
+        <v>108</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
@@ -2602,10 +3008,10 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
-      <c r="C12" s="125" t="s">
-        <v>110</v>
+      <c r="C12" s="124" t="s">
+        <v>109</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
@@ -2621,55 +3027,56 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="33" t="s">
+    <row r="13" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="162">
+        <f>'Research data'!G7</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="143"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="31" t="str">
+        <f>Sources!E13</f>
+        <v>ISSO 72 and Quintel calc</v>
+      </c>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="145">
+        <f>'Research data'!G8</f>
+        <v>154736.84210526317</v>
+      </c>
+      <c r="F14" s="143"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="33" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="43">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="37"/>
-      <c r="C14" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="44">
-        <v>0</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="108"/>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
-      <c r="B15" s="37"/>
-      <c r="C15" s="125" t="s">
-        <v>111</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <v>0</v>
       </c>
       <c r="F15" s="33"/>
@@ -2678,19 +3085,19 @@
       <c r="I15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="108"/>
+      <c r="J15" s="107"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -2698,18 +3105,18 @@
       <c r="I16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="108"/>
+      <c r="J16" s="107"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
-      <c r="C17" s="33" t="s">
-        <v>37</v>
+      <c r="C17" s="124" t="s">
+        <v>110</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="44">
         <v>0</v>
       </c>
       <c r="F17" s="33"/>
@@ -2718,19 +3125,19 @@
       <c r="I17" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="108"/>
+      <c r="J17" s="107"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="31">
-        <v>0</v>
+      <c r="E18" s="44">
+        <v>1</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -2738,249 +3145,247 @@
       <c r="I18" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="108"/>
+      <c r="J18" s="107"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="44">
+        <v>4</v>
+      </c>
+      <c r="E19" s="31">
         <v>0</v>
       </c>
       <c r="F19" s="33"/>
-      <c r="G19" s="33" t="s">
-        <v>27</v>
-      </c>
+      <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="108"/>
-    </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+      <c r="J19" s="107"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="43">
-        <f>'Research data'!G6</f>
-        <v>0.01</v>
+        <v>4</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
       </c>
       <c r="F20" s="33"/>
-      <c r="G20" s="33" t="s">
-        <v>53</v>
-      </c>
+      <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="108"/>
-    </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+      <c r="J20" s="107"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
-      <c r="C21" s="59" t="s">
-        <v>60</v>
+      <c r="C21" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="43">
-        <v>1.9574835417698999</v>
+        <v>59</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="60" t="s">
-        <v>65</v>
+      <c r="G21" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="108"/>
-    </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
-      <c r="C22" s="59" t="s">
-        <v>61</v>
+      <c r="C22" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E22" s="43">
-        <v>0.48469874776884098</v>
+        <f>'Research data'!G6</f>
+        <v>0.01</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="60" t="s">
-        <v>66</v>
+      <c r="G22" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="108"/>
-    </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+      <c r="J22" s="107"/>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="43">
-        <v>2.80578502945801</v>
+        <v>1.9574835417698999</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="108"/>
-    </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+      <c r="J23" s="107"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="43">
-        <v>3.66713847099266</v>
+        <v>0.48469874776884098</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="108"/>
-    </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+      <c r="J24" s="107"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
+        <v>2.80578502945801</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="107"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="37"/>
+      <c r="C26" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="43">
+        <v>3.66713847099266</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="107"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="37"/>
+      <c r="C27" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="44">
         <v>5524.9193295064797</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="61" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="126" t="s">
+      <c r="H27" s="33"/>
+      <c r="I27" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="108"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="37"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="108"/>
-    </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="14" t="s">
+      <c r="J27" s="107"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="37"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="107"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="37"/>
+      <c r="C29" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="108"/>
-    </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
-      <c r="B28" s="37"/>
-      <c r="C28" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="44">
-        <f>'Research data'!G14</f>
-        <v>13000</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="108"/>
-    </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="44">
-        <v>0</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="108"/>
-    </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+      <c r="D29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="107"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="44">
-        <v>0</v>
+        <f>'Research data'!G16</f>
+        <v>12746.4</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="108"/>
-    </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+      <c r="J30" s="107"/>
+    </row>
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>31</v>
@@ -2990,270 +3395,281 @@
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="108"/>
-    </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+      <c r="J31" s="107"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="102">
-        <f>'Research data'!G16</f>
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="E32" s="44">
+        <f>'Research data'!G22</f>
+        <v>1500</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H32" s="33"/>
-      <c r="I32" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="108"/>
-    </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+      <c r="I32" s="83" t="str">
+        <f>Sources!E10</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J32" s="107"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="43">
-        <f>'Research data'!G18</f>
+        <v>31</v>
+      </c>
+      <c r="E33" s="44">
         <v>0</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="84" t="s">
+      <c r="I33" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="108"/>
-    </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+      <c r="J33" s="107"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="105">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="E34" s="101">
+        <f>'Research data'!G18</f>
+        <v>100</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H34" s="33"/>
-      <c r="I34" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="108"/>
-    </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+      <c r="I34" s="83" t="str">
+        <f>Sources!E10</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J34" s="107"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E35" s="43">
-        <v>0.04</v>
+        <f>'Research data'!G20</f>
+        <v>0</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="H35" s="33"/>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="J35" s="108"/>
-    </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+      <c r="J35" s="107"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="104">
+        <v>0</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="107"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="37"/>
+      <c r="C37" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="43">
+        <v>0.04</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="107"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="37"/>
+      <c r="C38" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D38" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E38" s="44">
         <v>0</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="31" t="s">
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="108"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="37"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="108"/>
-    </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
-      <c r="B38" s="37"/>
-      <c r="C38" s="14" t="s">
+      <c r="J38" s="107"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="37"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="107"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="37"/>
+      <c r="C40" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="108"/>
-    </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
-      <c r="B39" s="37"/>
-      <c r="C39" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="44">
-        <f>'Research data'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="108"/>
-    </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
-      <c r="B40" s="37"/>
-      <c r="C40" s="130" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="102">
-        <f>'Research data'!G10</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="108"/>
-    </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+      <c r="D40" s="102"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="107"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="33" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="44">
         <f>'Research data'!G11</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="33"/>
+      <c r="I41" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="107"/>
+    </row>
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="37"/>
+      <c r="C42" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="101">
+        <f>'Research data'!G12</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="33"/>
+      <c r="I42" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="107"/>
+    </row>
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="37"/>
+      <c r="C43" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="44">
+        <f>'Research data'!G13</f>
+        <v>15</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="118" t="s">
+      <c r="H43" s="33"/>
+      <c r="I43" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="J41" s="108"/>
-    </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
-      <c r="B42" s="37"/>
-      <c r="C42" s="33" t="s">
+      <c r="J43" s="107"/>
+    </row>
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="37"/>
+      <c r="C44" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D44" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="44">
-        <v>0</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="108"/>
-    </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
-      <c r="B43" s="37"/>
-      <c r="C43" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="102">
-        <v>6</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="108"/>
-    </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
-      <c r="B44" s="37"/>
-      <c r="C44" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="102">
+      <c r="E44" s="44">
         <v>0</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="31" t="s">
+      <c r="I44" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="J44" s="108"/>
-    </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+      <c r="J44" s="107"/>
+    </row>
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
-      <c r="C45" s="121" t="s">
-        <v>103</v>
+      <c r="C45" s="120" t="s">
+        <v>100</v>
       </c>
       <c r="D45" s="19"/>
-      <c r="E45" s="102">
-        <v>130</v>
+      <c r="E45" s="101">
+        <v>6</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -3261,16 +3677,16 @@
       <c r="I45" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="108"/>
-    </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+      <c r="J45" s="107"/>
+    </row>
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
-      <c r="C46" s="121" t="s">
-        <v>104</v>
+      <c r="C46" s="120" t="s">
+        <v>101</v>
       </c>
       <c r="D46" s="19"/>
-      <c r="E46" s="102">
-        <v>4</v>
+      <c r="E46" s="101">
+        <v>0</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -3278,16 +3694,16 @@
       <c r="I46" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J46" s="108"/>
-    </row>
-    <row r="47" spans="2:10" ht="16" thickBot="1">
+      <c r="J46" s="107"/>
+    </row>
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
-      <c r="C47" s="121" t="s">
-        <v>105</v>
+      <c r="C47" s="120" t="s">
+        <v>102</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="102">
-        <v>40</v>
+      <c r="E47" s="101">
+        <v>130</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -3295,18 +3711,52 @@
       <c r="I47" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J47" s="108"/>
-    </row>
-    <row r="48" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
+      <c r="J47" s="107"/>
+    </row>
+    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="C48" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="101">
+        <v>4</v>
+      </c>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="107"/>
+    </row>
+    <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="37"/>
+      <c r="C49" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="101">
+        <v>40</v>
+      </c>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="107"/>
+    </row>
+    <row r="50" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3346,11 +3796,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3359,30 +3804,30 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="62" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="62" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="62" customWidth="1"/>
-    <col min="8" max="8" width="4" style="62" customWidth="1"/>
-    <col min="9" max="9" width="16" style="62" customWidth="1"/>
-    <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="60" style="62" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="62"/>
+    <col min="1" max="2" width="3.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="62" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="62" customWidth="1"/>
+    <col min="9" max="10" width="8.5703125" style="62" customWidth="1"/>
+    <col min="11" max="13" width="16" style="62" customWidth="1"/>
+    <col min="14" max="14" width="3" style="63" customWidth="1"/>
+    <col min="15" max="15" width="60" style="62" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -3391,30 +3836,52 @@
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="J2" s="65"/>
       <c r="K2" s="65"/>
-    </row>
-    <row r="3" spans="2:11" s="21" customFormat="1">
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="65"/>
+    </row>
+    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="112" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="113" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="H3" s="112"/>
+      <c r="I3" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="112" t="str">
+        <f>Sources!E13</f>
+        <v>ISSO 72 and Quintel calc</v>
+      </c>
+      <c r="K3" s="112" t="str">
+        <f>Sources!E15</f>
+        <v>Warmtepompforum</v>
+      </c>
+      <c r="L3" s="112" t="str">
+        <f>Sources!E17</f>
+        <v>Installand</v>
+      </c>
+      <c r="M3" s="112" t="str">
+        <f>Sources!E19</f>
+        <v>Nefit</v>
+      </c>
+      <c r="N3" s="58"/>
+      <c r="O3" s="112" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -3423,10 +3890,14 @@
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67"/>
       <c r="C5" s="29" t="s">
         <v>88</v>
@@ -3438,251 +3909,390 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+      <c r="K5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="59"/>
+    </row>
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
-      <c r="C6" s="127" t="s">
-        <v>112</v>
+      <c r="C6" s="126" t="s">
+        <v>111</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
       <c r="F6" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G6" s="127">
         <f>ROUND(0.01,2)</f>
         <v>0.01</v>
       </c>
-      <c r="H6" s="72"/>
+      <c r="H6" s="140"/>
       <c r="I6" s="72"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="59"/>
+    </row>
+    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="67"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="114"/>
-    </row>
-    <row r="8" spans="2:11" ht="16" thickBot="1">
+      <c r="C7" s="142" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="161">
+        <f>I7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="140"/>
+      <c r="I7" s="173">
+        <f>Notes!E24</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="161">
+        <f>Notes!E13</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="K7" s="161">
+        <f>Notes!E21</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="133"/>
+    </row>
+    <row r="8" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="67"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="143" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="122">
+        <f>M8</f>
+        <v>154736.84210526317</v>
+      </c>
+      <c r="H8" s="140"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="180">
+        <f>Notes!E44</f>
+        <v>164988.7302779865</v>
+      </c>
+      <c r="M8" s="180">
+        <f>Notes!E52</f>
+        <v>154736.84210526317</v>
+      </c>
+      <c r="N8" s="69"/>
+      <c r="O8" s="133" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="67"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="113"/>
+    </row>
+    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="67"/>
+      <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="2:11" ht="16" thickBot="1">
-      <c r="B9" s="67"/>
-      <c r="C9" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="129" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="67"/>
+      <c r="C11" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="123">
+      <c r="G11" s="122">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
-      <c r="B10" s="67"/>
-      <c r="C10" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="71" t="s">
+      <c r="H11" s="74"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="67"/>
+      <c r="C12" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="123">
+      <c r="G12" s="122">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
-      <c r="B11" s="67"/>
-      <c r="C11" s="78" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="67"/>
+      <c r="C13" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="71" t="s">
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="123">
+      <c r="G13" s="122">
         <f>ROUND(15,0)</f>
         <v>15</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="119"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="67"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="59"/>
-    </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
-      <c r="B13" s="67"/>
-      <c r="C13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="59"/>
-    </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+      <c r="H13" s="74"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="118"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="67"/>
-      <c r="C14" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="77">
-        <f>ROUND(G15*G6*1000,2)</f>
-        <v>13000</v>
-      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="120"/>
-    </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="59"/>
+    </row>
+    <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="67"/>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="59"/>
+    </row>
+    <row r="16" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="67"/>
+      <c r="C16" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="77">
+        <f>Notes!E28</f>
+        <v>12746.4</v>
+      </c>
+      <c r="H16" s="141"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="119"/>
+    </row>
+    <row r="17" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="67"/>
+      <c r="C17" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="110" t="s">
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="77">
+        <v>1300</v>
+      </c>
+      <c r="H17" s="141"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="123"/>
+    </row>
+    <row r="18" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="67"/>
+      <c r="C18" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="80">
+        <f>I18</f>
+        <v>100</v>
+      </c>
+      <c r="H18" s="141"/>
+      <c r="I18" s="139">
+        <v>100</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="123"/>
+    </row>
+    <row r="19" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="67"/>
+      <c r="C19" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="77">
-        <v>1300</v>
-      </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="124"/>
-    </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
-      <c r="B16" s="67"/>
-      <c r="C16" s="116" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="122" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="80">
-        <v>100</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="124"/>
-    </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
-      <c r="B17" s="67"/>
-      <c r="C17" s="109" t="s">
+      <c r="G19" s="80"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="123"/>
+    </row>
+    <row r="20" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="67"/>
+      <c r="C20" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="124"/>
-    </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
-      <c r="B18" s="67"/>
-      <c r="C18" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="71" t="s">
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G20" s="77">
         <v>0</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="120"/>
-    </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
-      <c r="B19" s="67"/>
-      <c r="C19" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="110" t="s">
+      <c r="H20" s="141"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="119"/>
+    </row>
+    <row r="21" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="67"/>
+      <c r="C21" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="83">
+      <c r="G21" s="138">
         <v>0</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="30"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="62" t="str">
+        <f>Dashboard!C32</f>
+        <v>cost_of_installing</v>
+      </c>
+      <c r="G22" s="139">
+        <f>I22</f>
+        <v>1500</v>
+      </c>
+      <c r="I22" s="139">
+        <f>Notes!E25</f>
+        <v>1500</v>
+      </c>
+      <c r="J22" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3691,28 +4301,28 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:K5"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="46" customWidth="1"/>
     <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="45"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3722,9 +4332,9 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="49"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="K2" s="184"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>21</v>
@@ -3736,9 +4346,9 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="K3" s="185"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3748,9 +4358,9 @@
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="54"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="K4" s="185"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>28</v>
@@ -3766,25 +4376,1174 @@
         <v>29</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="50"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="185"/>
+    </row>
+    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="50"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="185"/>
+    </row>
+    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="50"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="56" t="s">
-        <v>15</v>
-      </c>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="134"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="185"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="50"/>
+      <c r="C10" s="135" t="str">
+        <f>Dashboard!C32</f>
+        <v>cost_of_installing</v>
+      </c>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="136">
+        <v>42948</v>
+      </c>
+      <c r="J10" s="137" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="134" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="50"/>
+      <c r="C11" s="137" t="str">
+        <f>Dashboard!C$13</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="185"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="50"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="185"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="50"/>
+      <c r="C13" s="137" t="str">
+        <f>Dashboard!C13</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="132">
+        <v>2010</v>
+      </c>
+      <c r="H13" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="136">
+        <v>42948</v>
+      </c>
+      <c r="J13" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="134"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="50"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="134"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="50"/>
+      <c r="C15" s="137" t="str">
+        <f>Dashboard!C$13</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="136">
+        <v>42948</v>
+      </c>
+      <c r="J15" s="146" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="134"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="50"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="185"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="50"/>
+      <c r="C17" s="54" t="str">
+        <f>Dashboard!C$14</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="187">
+        <v>42979</v>
+      </c>
+      <c r="J17" s="188" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="185"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="50"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="185"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="50"/>
+      <c r="C19" s="54" t="str">
+        <f>Dashboard!C$14</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="187">
+        <v>42979</v>
+      </c>
+      <c r="J19" s="157" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="185"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="50"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="185"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="189"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="192"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="147" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="147" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="147" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="147" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="147" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" style="147" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="147" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="147"/>
+    <col min="10" max="10" width="136.28515625" style="147" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="147"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="148"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="149"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="99"/>
+      <c r="C4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="150"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="151"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="151"/>
+      <c r="C6" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="151"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="154">
+        <v>10</v>
+      </c>
+      <c r="F7" s="154" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="153"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="151"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="154">
+        <v>10</v>
+      </c>
+      <c r="F8" s="154" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="151"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="154">
+        <v>4.18</v>
+      </c>
+      <c r="F9" s="154" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="153"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="151"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="152" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="154">
+        <v>10</v>
+      </c>
+      <c r="F10" s="154" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="153"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="151"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="152" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="155">
+        <f>E7*60*E8/E9/E10</f>
+        <v>143.54066985645935</v>
+      </c>
+      <c r="F11" s="154" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="153"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="151"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="155">
+        <v>3600000</v>
+      </c>
+      <c r="F12" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="151"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="156" t="str">
+        <f>Dashboard!C$13</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="E13" s="154">
+        <f>MROUND(E11*E10*E9/E12,0.0001)</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="F13" s="172" t="str">
+        <f>Dashboard!D$13</f>
+        <v>MWh</v>
+      </c>
+      <c r="G13" s="152"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="151"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="153"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="151"/>
+      <c r="C15" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="154">
+        <v>20</v>
+      </c>
+      <c r="F15" s="154" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="151"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="154">
+        <v>10</v>
+      </c>
+      <c r="F16" s="154" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="151"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="154">
+        <v>4.18</v>
+      </c>
+      <c r="F17" s="154" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="151"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="152" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="154">
+        <v>10</v>
+      </c>
+      <c r="F18" s="154" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="151"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="152" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="155">
+        <f>E15*60*E16/E17/E18</f>
+        <v>287.08133971291869</v>
+      </c>
+      <c r="F19" s="154" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="151"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="155">
+        <v>3600000</v>
+      </c>
+      <c r="F20" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="151"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="156" t="str">
+        <f>Dashboard!C$13</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="E21" s="154">
+        <f>MROUND(E19*E18*E17/E20,0.0001)</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="F21" s="172" t="str">
+        <f>Dashboard!D$13</f>
+        <v>MWh</v>
+      </c>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="151"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="151"/>
+      <c r="C24" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="156" t="str">
+        <f>Dashboard!C$13</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="E24" s="147">
+        <v>0</v>
+      </c>
+      <c r="F24" s="172" t="str">
+        <f>Dashboard!D$13</f>
+        <v>MWh</v>
+      </c>
+      <c r="G24" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="153"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="151"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152" t="str">
+        <f>Dashboard!C32</f>
+        <v>cost_of_installing</v>
+      </c>
+      <c r="E25" s="152">
+        <v>1500</v>
+      </c>
+      <c r="F25" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="153"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="151"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="152">
+        <v>13000</v>
+      </c>
+      <c r="F26" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="153"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="151"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="181">
+        <v>253.6</v>
+      </c>
+      <c r="F27" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="151"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="182" t="str">
+        <f>Dashboard!C30</f>
+        <v>initial_investment</v>
+      </c>
+      <c r="E28" s="183">
+        <f>E26-E27</f>
+        <v>12746.4</v>
+      </c>
+      <c r="F28" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="153"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="151"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="153"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="151"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="151"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="151"/>
+      <c r="C33" s="178" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="178"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="153"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34">
+        <v>4.18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="153"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="151"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="153"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="151"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152">
+        <f>E34*E35</f>
+        <v>41.8</v>
+      </c>
+      <c r="F36" s="152" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="151"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152">
+        <v>3600000</v>
+      </c>
+      <c r="F37" s="152" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="153"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="174">
+        <f>E36/E37</f>
+        <v>1.161111111111111E-5</v>
+      </c>
+      <c r="F38" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="153"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="151"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="147">
+        <v>500</v>
+      </c>
+      <c r="F39" s="147" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="153"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="151"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="152">
+        <v>1159</v>
+      </c>
+      <c r="F40" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="153"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="151"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="175">
+        <f>E40/1.21</f>
+        <v>957.85123966942149</v>
+      </c>
+      <c r="F41" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="153"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="151"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="177">
+        <f>E41/E39</f>
+        <v>1.9157024793388431</v>
+      </c>
+      <c r="F42" s="147" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="153"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="151"/>
+      <c r="C43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="153"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="151"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="156" t="str">
+        <f>Dashboard!C$14</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="E44" s="176">
+        <f>E42/E38</f>
+        <v>164988.7302779865</v>
+      </c>
+      <c r="F44" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="153"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="151"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="153"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="151"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="153"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="151"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="153"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="151"/>
+      <c r="C48" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="152"/>
+      <c r="E48" s="147">
+        <v>300</v>
+      </c>
+      <c r="F48" s="147" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="153"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="151"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="175">
+        <v>539</v>
+      </c>
+      <c r="F49" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="153"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="151"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="177">
+        <f>E49/E48</f>
+        <v>1.7966666666666666</v>
+      </c>
+      <c r="F50" s="147" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="153"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="151"/>
+      <c r="C51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="153"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="151"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="156" t="str">
+        <f>Dashboard!C$14</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="E52" s="176">
+        <f>E50/E38</f>
+        <v>154736.84210526317</v>
+      </c>
+      <c r="F52" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="153"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="151"/>
+      <c r="C53" s="152"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="153"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="152"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="152"/>
+      <c r="J54" s="153"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="151"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="157"/>
+      <c r="F55" s="152"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="153"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="151"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="152"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="153"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="151"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="153"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="151"/>
+      <c r="C58" s="14"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="153"/>
+    </row>
+    <row r="59" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="158"/>
+      <c r="C59" s="159"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="159"/>
+      <c r="H59" s="159"/>
+      <c r="I59" s="159"/>
+      <c r="J59" s="160"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nodes_source_analyses/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -617,6 +614,10 @@
   <si>
     <t>See documentation Households water heater heatpump ground water electricity</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -626,9 +627,9 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -781,11 +782,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1447,7 +1443,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1458,28 +1454,28 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1535,7 +1531,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1553,7 +1549,7 @@
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1603,12 +1599,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1637,7 +1633,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1648,42 +1644,15 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1691,17 +1660,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="177" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1970,83 +1966,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2712,7 +2632,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2721,7 +2641,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2854,14 +2774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2886,28 +2806,28 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
+      <c r="B2" s="184" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="186"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="169"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
+    <row r="4" spans="2:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
@@ -2960,7 +2880,7 @@
     <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2973,7 +2893,7 @@
     <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="124" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2992,7 +2912,7 @@
     <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="124" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
@@ -3011,7 +2931,7 @@
     <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
       <c r="C12" s="124" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
@@ -3030,10 +2950,10 @@
     <row r="13" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="20"/>
       <c r="C13" s="144" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="E13" s="162">
         <f>'Research data'!G7</f>
@@ -3051,10 +2971,10 @@
     <row r="14" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
       <c r="C14" s="144" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="E14" s="145">
         <f>'Research data'!G8</f>
@@ -3064,7 +2984,7 @@
       <c r="G14" s="33"/>
       <c r="H14" s="27"/>
       <c r="I14" s="130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J14" s="42"/>
     </row>
@@ -3111,7 +3031,7 @@
     <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="124" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>4</v>
@@ -3350,7 +3270,7 @@
     <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="102"/>
       <c r="E29" s="103"/>
@@ -3665,7 +3585,7 @@
     <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="101">
@@ -3682,7 +3602,7 @@
     <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
       <c r="C46" s="120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="101">
@@ -3699,7 +3619,7 @@
     <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
       <c r="C47" s="120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="101">
@@ -3716,7 +3636,7 @@
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
       <c r="C48" s="120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="101">
@@ -3733,7 +3653,7 @@
     <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="37"/>
       <c r="C49" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="101">
@@ -3764,38 +3684,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -3846,7 +3734,7 @@
     <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3858,7 +3746,7 @@
       </c>
       <c r="H3" s="112"/>
       <c r="I3" s="112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J3" s="112" t="str">
         <f>Sources!E13</f>
@@ -3878,7 +3766,7 @@
       </c>
       <c r="N3" s="58"/>
       <c r="O3" s="112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -3900,7 +3788,7 @@
     <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67"/>
       <c r="C5" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3917,7 +3805,7 @@
     <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
       <c r="C6" s="126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
@@ -3940,21 +3828,21 @@
     <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="67"/>
       <c r="C7" s="142" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="143" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="161">
         <f>I7</f>
         <v>0</v>
       </c>
       <c r="H7" s="140"/>
-      <c r="I7" s="173">
+      <c r="I7" s="164">
         <f>Notes!E24</f>
         <v>0</v>
       </c>
@@ -3966,22 +3854,22 @@
         <f>Notes!E21</f>
         <v>3.3E-3</v>
       </c>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
       <c r="N7" s="69"/>
       <c r="O7" s="133"/>
     </row>
     <row r="8" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="67"/>
       <c r="C8" s="142" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="122">
         <f>M8</f>
@@ -3991,17 +3879,17 @@
       <c r="I8" s="72"/>
       <c r="J8" s="72"/>
       <c r="K8" s="72"/>
-      <c r="L8" s="180">
+      <c r="L8" s="171">
         <f>Notes!E44</f>
         <v>164988.7302779865</v>
       </c>
-      <c r="M8" s="180">
+      <c r="M8" s="171">
         <f>Notes!E52</f>
         <v>154736.84210526317</v>
       </c>
       <c r="N8" s="69"/>
       <c r="O8" s="133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
@@ -4041,7 +3929,7 @@
     <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67"/>
       <c r="C11" s="78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -4064,7 +3952,7 @@
     <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="67"/>
       <c r="C12" s="78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -4126,7 +4014,7 @@
     <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="67"/>
       <c r="C15" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4144,7 +4032,7 @@
     <row r="16" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="67"/>
       <c r="C16" s="108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -4189,12 +4077,12 @@
     <row r="18" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="67"/>
       <c r="C18" s="115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="80">
         <f>I18</f>
@@ -4214,12 +4102,12 @@
     <row r="19" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="67"/>
       <c r="C19" s="108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" s="80"/>
       <c r="H19" s="141"/>
@@ -4234,7 +4122,7 @@
     <row r="20" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="67"/>
       <c r="C20" s="115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
@@ -4256,12 +4144,12 @@
     <row r="21" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="67"/>
       <c r="C21" s="108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
       <c r="F21" s="109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="138">
         <v>0</v>
@@ -4332,7 +4220,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="49"/>
-      <c r="K2" s="184"/>
+      <c r="K2" s="175"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
@@ -4346,7 +4234,7 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="185"/>
+      <c r="K3" s="176"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
@@ -4358,7 +4246,7 @@
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="54"/>
-      <c r="K4" s="185"/>
+      <c r="K4" s="176"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
@@ -4376,15 +4264,15 @@
         <v>29</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="186" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="177" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4398,7 +4286,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="185"/>
+      <c r="K6" s="176"/>
     </row>
     <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="50"/>
@@ -4410,14 +4298,14 @@
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="54"/>
-      <c r="K7" s="185"/>
+      <c r="K7" s="176"/>
     </row>
     <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="50"/>
       <c r="C8" s="132"/>
       <c r="D8" s="132"/>
       <c r="E8" s="132" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="132"/>
       <c r="G8" s="132"/>
@@ -4438,7 +4326,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
       <c r="J9" s="54"/>
-      <c r="K9" s="185"/>
+      <c r="K9" s="176"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
@@ -4448,10 +4336,10 @@
       </c>
       <c r="D10" s="132"/>
       <c r="E10" s="132" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="132" t="s">
         <v>117</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>118</v>
       </c>
       <c r="G10" s="132"/>
       <c r="H10" s="132"/>
@@ -4459,10 +4347,10 @@
         <v>42948</v>
       </c>
       <c r="J10" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="134" t="s">
         <v>119</v>
-      </c>
-      <c r="K10" s="134" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -4478,7 +4366,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
       <c r="J11" s="54"/>
-      <c r="K11" s="185"/>
+      <c r="K11" s="176"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="50"/>
@@ -4490,7 +4378,7 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="54"/>
-      <c r="K12" s="185"/>
+      <c r="K12" s="176"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
@@ -4500,22 +4388,22 @@
       </c>
       <c r="D13" s="132"/>
       <c r="E13" s="132" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="132">
         <v>2010</v>
       </c>
       <c r="H13" s="132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" s="136">
         <v>42948</v>
       </c>
       <c r="J13" s="146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K13" s="134"/>
     </row>
@@ -4539,22 +4427,22 @@
       </c>
       <c r="D15" s="132"/>
       <c r="E15" s="132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I15" s="136">
         <v>42948</v>
       </c>
       <c r="J15" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" s="134"/>
     </row>
@@ -4568,7 +4456,7 @@
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="54"/>
-      <c r="K16" s="185"/>
+      <c r="K16" s="176"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="50"/>
@@ -4578,24 +4466,24 @@
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="187">
+        <v>126</v>
+      </c>
+      <c r="I17" s="178">
         <v>42979</v>
       </c>
-      <c r="J17" s="188" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" s="185"/>
+      <c r="J17" s="179" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="176"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="50"/>
@@ -4607,7 +4495,7 @@
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
       <c r="J18" s="54"/>
-      <c r="K18" s="185"/>
+      <c r="K18" s="176"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
@@ -4617,24 +4505,24 @@
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="178">
+        <v>42979</v>
+      </c>
+      <c r="J19" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="132" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="187">
-        <v>42979</v>
-      </c>
-      <c r="J19" s="157" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="185"/>
+      <c r="K19" s="176"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="50"/>
@@ -4646,19 +4534,19 @@
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="185"/>
+      <c r="K20" s="176"/>
     </row>
     <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="189"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="191"/>
-      <c r="K21" s="192"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="183"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4709,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -4732,13 +4620,13 @@
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="151"/>
       <c r="C6" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="52"/>
       <c r="E6" s="152"/>
       <c r="F6" s="152"/>
       <c r="G6" s="152" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="152"/>
       <c r="I6" s="152"/>
@@ -4748,13 +4636,13 @@
       <c r="B7" s="151"/>
       <c r="C7" s="14"/>
       <c r="D7" s="152" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="154">
         <v>10</v>
       </c>
       <c r="F7" s="154" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" s="152"/>
       <c r="H7" s="152"/>
@@ -4765,13 +4653,13 @@
       <c r="B8" s="151"/>
       <c r="C8" s="14"/>
       <c r="D8" s="152" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="154">
         <v>10</v>
       </c>
       <c r="F8" s="154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" s="152"/>
       <c r="H8" s="152"/>
@@ -4782,13 +4670,13 @@
       <c r="B9" s="151"/>
       <c r="C9" s="14"/>
       <c r="D9" s="152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="154">
         <v>4.18</v>
       </c>
       <c r="F9" s="154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="152"/>
       <c r="H9" s="152"/>
@@ -4799,16 +4687,16 @@
       <c r="B10" s="151"/>
       <c r="C10" s="14"/>
       <c r="D10" s="152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="154">
         <v>10</v>
       </c>
       <c r="F10" s="154" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="152" t="s">
         <v>140</v>
-      </c>
-      <c r="G10" s="152" t="s">
-        <v>141</v>
       </c>
       <c r="H10" s="152"/>
       <c r="I10" s="152"/>
@@ -4818,14 +4706,14 @@
       <c r="B11" s="151"/>
       <c r="C11" s="14"/>
       <c r="D11" s="152" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="155">
         <f>E7*60*E8/E9/E10</f>
         <v>143.54066985645935</v>
       </c>
       <c r="F11" s="154" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="152"/>
       <c r="H11" s="152"/>
@@ -4836,13 +4724,13 @@
       <c r="B12" s="151"/>
       <c r="C12" s="14"/>
       <c r="D12" s="152" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="155">
         <v>3600000</v>
       </c>
       <c r="F12" s="154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G12" s="152"/>
       <c r="H12" s="152"/>
@@ -4860,7 +4748,7 @@
         <f>MROUND(E11*E10*E9/E12,0.0001)</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="F13" s="172" t="str">
+      <c r="F13" s="163" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
@@ -4883,16 +4771,16 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="151"/>
       <c r="C15" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="152" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="154">
         <v>20</v>
       </c>
       <c r="F15" s="154" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" s="152"/>
       <c r="H15" s="152"/>
@@ -4903,13 +4791,13 @@
       <c r="B16" s="151"/>
       <c r="C16" s="14"/>
       <c r="D16" s="152" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" s="154">
         <v>10</v>
       </c>
       <c r="F16" s="154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" s="152"/>
       <c r="H16" s="152"/>
@@ -4920,13 +4808,13 @@
       <c r="B17" s="151"/>
       <c r="C17" s="14"/>
       <c r="D17" s="152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="154">
         <v>4.18</v>
       </c>
       <c r="F17" s="154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="152"/>
       <c r="H17" s="152"/>
@@ -4937,16 +4825,16 @@
       <c r="B18" s="151"/>
       <c r="C18" s="14"/>
       <c r="D18" s="152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="154">
         <v>10</v>
       </c>
       <c r="F18" s="154" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="152" t="s">
         <v>140</v>
-      </c>
-      <c r="G18" s="152" t="s">
-        <v>141</v>
       </c>
       <c r="H18" s="152"/>
       <c r="I18" s="152"/>
@@ -4956,14 +4844,14 @@
       <c r="B19" s="151"/>
       <c r="C19" s="14"/>
       <c r="D19" s="152" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="155">
         <f>E15*60*E16/E17/E18</f>
         <v>287.08133971291869</v>
       </c>
       <c r="F19" s="154" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="152"/>
       <c r="H19" s="152"/>
@@ -4974,13 +4862,13 @@
       <c r="B20" s="151"/>
       <c r="C20" s="14"/>
       <c r="D20" s="152" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="155">
         <v>3600000</v>
       </c>
       <c r="F20" s="154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" s="152"/>
       <c r="H20" s="152"/>
@@ -4998,7 +4886,7 @@
         <f>MROUND(E19*E18*E17/E20,0.0001)</f>
         <v>3.3E-3</v>
       </c>
-      <c r="F21" s="172" t="str">
+      <c r="F21" s="163" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
@@ -5032,7 +4920,7 @@
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="151"/>
       <c r="C24" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="156" t="str">
         <f>Dashboard!C$13</f>
@@ -5041,12 +4929,12 @@
       <c r="E24" s="147">
         <v>0</v>
       </c>
-      <c r="F24" s="172" t="str">
+      <c r="F24" s="163" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
       <c r="G24" s="152" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H24" s="152"/>
       <c r="I24" s="152"/>
@@ -5074,7 +4962,7 @@
       <c r="B26" s="151"/>
       <c r="C26" s="152"/>
       <c r="D26" s="152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="152">
         <v>13000</v>
@@ -5091,16 +4979,16 @@
       <c r="B27" s="151"/>
       <c r="C27" s="152"/>
       <c r="D27" s="152" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="181">
+        <v>160</v>
+      </c>
+      <c r="E27" s="172">
         <v>253.6</v>
       </c>
       <c r="F27" s="152" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H27" s="152"/>
       <c r="I27" s="152"/>
@@ -5109,11 +4997,11 @@
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="151"/>
       <c r="C28" s="152"/>
-      <c r="D28" s="182" t="str">
+      <c r="D28" s="173" t="str">
         <f>Dashboard!C30</f>
         <v>initial_investment</v>
       </c>
-      <c r="E28" s="183">
+      <c r="E28" s="174">
         <f>E26-E27</f>
         <v>12746.4</v>
       </c>
@@ -5171,10 +5059,10 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="151"/>
-      <c r="C33" s="178" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="178"/>
+      <c r="C33" s="169" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="169"/>
       <c r="E33" s="152"/>
       <c r="F33" s="152"/>
       <c r="G33" s="152"/>
@@ -5186,13 +5074,13 @@
       <c r="B34" s="151"/>
       <c r="C34" s="152"/>
       <c r="D34" s="152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34">
         <v>4.18</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G34" s="152"/>
       <c r="H34" s="152"/>
@@ -5203,13 +5091,13 @@
       <c r="B35" s="151"/>
       <c r="C35" s="152"/>
       <c r="D35" s="152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="152"/>
       <c r="H35" s="152"/>
@@ -5225,7 +5113,7 @@
         <v>41.8</v>
       </c>
       <c r="F36" s="152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G36" s="152"/>
       <c r="H36" s="152"/>
@@ -5240,7 +5128,7 @@
         <v>3600000</v>
       </c>
       <c r="F37" s="152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" s="152"/>
       <c r="H37" s="152"/>
@@ -5251,12 +5139,12 @@
       <c r="B38" s="151"/>
       <c r="C38" s="152"/>
       <c r="D38" s="152"/>
-      <c r="E38" s="174">
+      <c r="E38" s="165">
         <f>E36/E37</f>
         <v>1.161111111111111E-5</v>
       </c>
       <c r="F38" s="152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" s="152"/>
       <c r="H38" s="152"/>
@@ -5271,7 +5159,7 @@
         <v>500</v>
       </c>
       <c r="F39" s="147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G39" s="152"/>
       <c r="H39" s="152"/>
@@ -5282,7 +5170,7 @@
       <c r="B40" s="151"/>
       <c r="C40" s="152"/>
       <c r="D40" s="152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="152">
         <v>1159</v>
@@ -5299,9 +5187,9 @@
       <c r="B41" s="151"/>
       <c r="C41" s="152"/>
       <c r="D41" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" s="175">
+        <v>155</v>
+      </c>
+      <c r="E41" s="166">
         <f>E40/1.21</f>
         <v>957.85123966942149</v>
       </c>
@@ -5317,14 +5205,14 @@
       <c r="B42" s="151"/>
       <c r="C42" s="152"/>
       <c r="D42" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="177">
+        <v>156</v>
+      </c>
+      <c r="E42" s="168">
         <f>E41/E39</f>
         <v>1.9157024793388431</v>
       </c>
       <c r="F42" s="147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G42" s="152"/>
       <c r="H42" s="152"/>
@@ -5346,12 +5234,12 @@
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E44" s="176">
+      <c r="E44" s="167">
         <f>E42/E38</f>
         <v>164988.7302779865</v>
       </c>
       <c r="F44" s="152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" s="152"/>
       <c r="H44" s="152"/>
@@ -5394,14 +5282,14 @@
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="151"/>
       <c r="C48" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D48" s="152"/>
       <c r="E48" s="147">
         <v>300</v>
       </c>
       <c r="F48" s="147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G48" s="152"/>
       <c r="H48" s="152"/>
@@ -5412,9 +5300,9 @@
       <c r="B49" s="151"/>
       <c r="C49" s="152"/>
       <c r="D49" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="175">
+        <v>155</v>
+      </c>
+      <c r="E49" s="166">
         <v>539</v>
       </c>
       <c r="F49" s="147" t="s">
@@ -5429,14 +5317,14 @@
       <c r="B50" s="151"/>
       <c r="C50" s="152"/>
       <c r="D50" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="177">
+        <v>156</v>
+      </c>
+      <c r="E50" s="168">
         <f>E49/E48</f>
         <v>1.7966666666666666</v>
       </c>
       <c r="F50" s="147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G50" s="152"/>
       <c r="H50" s="152"/>
@@ -5458,12 +5346,12 @@
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E52" s="176">
+      <c r="E52" s="167">
         <f>E50/E38</f>
         <v>154736.84210526317</v>
       </c>
       <c r="F52" s="152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G52" s="152"/>
       <c r="H52" s="152"/>

--- a/nodes_source_analyses/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77E0079-F724-8941-8760-B7454625C70B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="460" windowWidth="13960" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="13960" yWindow="460" windowWidth="13960" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="153">
   <si>
     <t>Source</t>
   </si>
@@ -229,36 +230,6 @@
   </si>
   <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>Author</t>
@@ -622,19 +593,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1136,566 +1114,564 @@
   </borders>
   <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="177" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="177" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1962,6 +1938,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1983,7 +1962,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2021,7 +2006,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2059,7 +2050,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2097,7 +2094,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2135,7 +2138,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2595,56 +2604,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2653,118 +2662,118 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="83"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="85"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="86" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="88" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="94" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="95" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="89" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="92"/>
+      <c r="C23" s="96" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="91" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="93" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="96" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="94"/>
-      <c r="C23" s="98" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2774,67 +2783,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K50"/>
+  <dimension ref="B1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A23" sqref="A23:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="184" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="182" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="184"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="187"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="192"/>
+    <row r="4" spans="2:11" ht="38" customHeight="1">
+      <c r="B4" s="188"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2845,12 +2854,12 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="99"/>
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
+      <c r="B7" s="97"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="98" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2864,9 +2873,9 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="106"/>
-    </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="J7" s="104"/>
+    </row>
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2877,10 +2886,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2890,10 +2899,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="124" t="s">
-        <v>106</v>
+      <c r="C10" s="122" t="s">
+        <v>96</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2904,15 +2913,15 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="130" t="s">
+      <c r="I10" s="128" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
-      <c r="C11" s="124" t="s">
-        <v>107</v>
+      <c r="C11" s="122" t="s">
+        <v>97</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
@@ -2928,10 +2937,10 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="20"/>
-      <c r="C12" s="124" t="s">
-        <v>108</v>
+      <c r="C12" s="122" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
@@ -2947,19 +2956,19 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="20"/>
-      <c r="C13" s="144" t="s">
-        <v>121</v>
+      <c r="C13" s="142" t="s">
+        <v>111</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="162">
+        <v>112</v>
+      </c>
+      <c r="E13" s="160">
         <f>'Research data'!G7</f>
         <v>0</v>
       </c>
-      <c r="F13" s="143"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="33"/>
       <c r="H13" s="27"/>
       <c r="I13" s="31" t="str">
@@ -2968,27 +2977,27 @@
       </c>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="20"/>
-      <c r="C14" s="144" t="s">
-        <v>123</v>
+      <c r="C14" s="142" t="s">
+        <v>113</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="145">
+        <v>114</v>
+      </c>
+      <c r="E14" s="143">
         <f>'Research data'!G8</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="F14" s="143"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="33"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="130" t="s">
-        <v>115</v>
+      <c r="I14" s="128" t="s">
+        <v>105</v>
       </c>
       <c r="J14" s="42"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>32</v>
@@ -3005,10 +3014,10 @@
       <c r="I15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="107"/>
+      <c r="J15" s="105"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>34</v>
@@ -3025,13 +3034,13 @@
       <c r="I16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="107"/>
+      <c r="J16" s="105"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="37"/>
-      <c r="C17" s="124" t="s">
-        <v>109</v>
+      <c r="C17" s="122" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>4</v>
@@ -3045,10 +3054,10 @@
       <c r="I17" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="107"/>
+      <c r="J17" s="105"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>9</v>
@@ -3065,10 +3074,10 @@
       <c r="I18" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="107"/>
+      <c r="J18" s="105"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>37</v>
@@ -3085,10 +3094,10 @@
       <c r="I19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="107"/>
+      <c r="J19" s="105"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>38</v>
@@ -3105,10 +3114,10 @@
       <c r="I20" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="107"/>
+      <c r="J20" s="105"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>39</v>
@@ -3127,9 +3136,9 @@
       <c r="I21" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="107"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="105"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>40</v>
@@ -3149,534 +3158,429 @@
       <c r="I22" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="107"/>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="105"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="37"/>
-      <c r="C23" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="43">
-        <v>1.9574835417698999</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="31" t="s">
+      <c r="C23" s="74"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="105"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1">
+      <c r="B24" s="37"/>
+      <c r="C24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="105"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" thickBot="1">
+      <c r="B25" s="37"/>
+      <c r="C25" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="44">
+        <f>'Research data'!G16</f>
+        <v>12746.4</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="107"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
-      <c r="C24" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="43">
-        <v>0.48469874776884098</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="107"/>
-    </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="43">
-        <v>2.80578502945801</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="107"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="105"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="37"/>
-      <c r="C26" s="59" t="s">
-        <v>63</v>
+      <c r="C26" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="43">
-        <v>3.66713847099266</v>
+        <v>31</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0</v>
       </c>
       <c r="F26" s="33"/>
-      <c r="G26" s="60" t="s">
-        <v>68</v>
+      <c r="G26" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="107"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="105"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="37"/>
-      <c r="C27" s="59" t="s">
-        <v>64</v>
+      <c r="C27" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E27" s="44">
-        <v>5524.9193295064797</v>
+        <f>'Research data'!G22</f>
+        <v>1500</v>
       </c>
       <c r="F27" s="33"/>
-      <c r="G27" s="61" t="s">
-        <v>69</v>
+      <c r="G27" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="125" t="s">
+      <c r="I27" s="81" t="str">
+        <f>Sources!E10</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J27" s="105"/>
+    </row>
+    <row r="28" spans="2:11" ht="17" thickBot="1">
+      <c r="B28" s="37"/>
+      <c r="C28" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="44">
+        <v>0</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="107"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="37"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="107"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="105"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="37"/>
-      <c r="C29" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="107"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="99">
+        <f>'Research data'!G18</f>
+        <v>100</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="81" t="str">
+        <f>Sources!E10</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J29" s="105"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="44">
-        <f>'Research data'!G16</f>
-        <v>12746.4</v>
+        <v>50</v>
+      </c>
+      <c r="E30" s="43">
+        <f>'Research data'!G20</f>
+        <v>0</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="83" t="s">
+      <c r="I30" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="107"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="105"/>
+    </row>
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="44">
+        <v>50</v>
+      </c>
+      <c r="E31" s="102">
         <v>0</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="107"/>
-    </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="105"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="44">
-        <f>'Research data'!G22</f>
-        <v>1500</v>
+        <v>2</v>
+      </c>
+      <c r="E32" s="43">
+        <v>0.04</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="33"/>
-      <c r="I32" s="83" t="str">
-        <f>Sources!E10</f>
-        <v>DHPA</v>
-      </c>
-      <c r="J32" s="107"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="105"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E33" s="44">
         <v>0</v>
       </c>
       <c r="F33" s="33"/>
-      <c r="G33" s="33" t="s">
-        <v>26</v>
-      </c>
+      <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="107"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="105"/>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="37"/>
-      <c r="C34" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="101">
-        <f>'Research data'!G18</f>
-        <v>100</v>
-      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="103"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="G34" s="33"/>
       <c r="H34" s="33"/>
-      <c r="I34" s="83" t="str">
-        <f>Sources!E10</f>
-        <v>DHPA</v>
-      </c>
-      <c r="J34" s="107"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="32"/>
+      <c r="J34" s="105"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
-      <c r="C35" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="43">
-        <f>'Research data'!G20</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="107"/>
-    </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="100"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="105"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="104">
+        <v>3</v>
+      </c>
+      <c r="E36" s="44">
+        <f>'Research data'!G11</f>
         <v>0</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H36" s="33"/>
-      <c r="I36" s="114" t="s">
+      <c r="I36" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="107"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="105"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
-      <c r="C37" s="33" t="s">
-        <v>49</v>
+      <c r="C37" s="127" t="s">
+        <v>47</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="43">
-        <v>0.04</v>
+        <v>1</v>
+      </c>
+      <c r="E37" s="99">
+        <f>'Research data'!G12</f>
+        <v>0</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H37" s="33"/>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="107"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="105"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
       <c r="C38" s="33" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E38" s="44">
+        <f>'Research data'!G13</f>
+        <v>15</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="105"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
+      <c r="B39" s="37"/>
+      <c r="C39" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="44">
         <v>0</v>
       </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="107"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="37"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="105"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="107"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="105"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="37"/>
-      <c r="C40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="102"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="107"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="99">
+        <v>6</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="105"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="37"/>
-      <c r="C41" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="44">
-        <f>'Research data'!G11</f>
+      <c r="C41" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="99">
         <v>0</v>
       </c>
       <c r="F41" s="33"/>
-      <c r="G41" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J41" s="107"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="105"/>
+    </row>
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="37"/>
-      <c r="C42" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="101">
-        <f>'Research data'!G12</f>
-        <v>0</v>
+      <c r="C42" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="99">
+        <v>130</v>
       </c>
       <c r="F42" s="33"/>
-      <c r="G42" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="G42" s="33"/>
       <c r="H42" s="33"/>
-      <c r="I42" s="116" t="s">
+      <c r="I42" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J42" s="107"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="105"/>
+    </row>
+    <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="37"/>
-      <c r="C43" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="44">
-        <f>'Research data'!G13</f>
-        <v>15</v>
+      <c r="C43" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="99">
+        <v>4</v>
       </c>
       <c r="F43" s="33"/>
-      <c r="G43" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="117" t="s">
+      <c r="I43" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="107"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="105"/>
+    </row>
+    <row r="44" spans="2:10" ht="17" thickBot="1">
       <c r="B44" s="37"/>
-      <c r="C44" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="44">
-        <v>0</v>
+      <c r="C44" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="99">
+        <v>40</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="125" t="s">
+      <c r="I44" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J44" s="107"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="101">
-        <v>6</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="107"/>
-    </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="37"/>
-      <c r="C46" s="120" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="101">
-        <v>0</v>
-      </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" s="107"/>
-    </row>
-    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="37"/>
-      <c r="C47" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="101">
-        <v>130</v>
-      </c>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="107"/>
-    </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
-      <c r="C48" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="101">
-        <v>4</v>
-      </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="107"/>
-    </row>
-    <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="37"/>
-      <c r="C49" s="120" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="101">
-        <v>40</v>
-      </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" s="107"/>
-    </row>
-    <row r="50" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
+      <c r="J44" s="105"/>
+    </row>
+    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3688,8 +3592,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:O22"/>
@@ -3698,97 +3602,97 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="62" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="62" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="62" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="62" customWidth="1"/>
-    <col min="9" max="10" width="8.5703125" style="62" customWidth="1"/>
-    <col min="11" max="13" width="16" style="62" customWidth="1"/>
-    <col min="14" max="14" width="3" style="63" customWidth="1"/>
-    <col min="15" max="15" width="60" style="62" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="62"/>
+    <col min="1" max="2" width="3.5" style="60" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="60" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="60" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="60" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="60" customWidth="1"/>
+    <col min="9" max="10" width="8.5" style="60" customWidth="1"/>
+    <col min="11" max="13" width="16" style="60" customWidth="1"/>
+    <col min="14" max="14" width="3" style="61" customWidth="1"/>
+    <col min="15" max="15" width="60" style="60" customWidth="1"/>
+    <col min="16" max="16384" width="10.6640625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="65"/>
-    </row>
-    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="63"/>
+    </row>
+    <row r="3" spans="2:15" s="21" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="112" t="s">
-        <v>88</v>
+      <c r="C3" s="110" t="s">
+        <v>78</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="112" t="str">
+      <c r="G3" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="110" t="str">
         <f>Sources!E13</f>
         <v>ISSO 72 and Quintel calc</v>
       </c>
-      <c r="K3" s="112" t="str">
+      <c r="K3" s="110" t="str">
         <f>Sources!E15</f>
         <v>Warmtepompforum</v>
       </c>
-      <c r="L3" s="112" t="str">
+      <c r="L3" s="110" t="str">
         <f>Sources!E17</f>
         <v>Installand</v>
       </c>
-      <c r="M3" s="112" t="str">
+      <c r="M3" s="110" t="str">
         <f>Sources!E19</f>
         <v>Nefit</v>
       </c>
       <c r="N3" s="58"/>
-      <c r="O3" s="112" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="111"/>
+      <c r="O3" s="110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="109"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67"/>
+    <row r="5" spans="2:15" ht="17" thickBot="1">
+      <c r="B5" s="65"/>
       <c r="C5" s="29" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3802,114 +3706,114 @@
       <c r="N5" s="10"/>
       <c r="O5" s="59"/>
     </row>
-    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67"/>
-      <c r="C6" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71" t="s">
+    <row r="6" spans="2:15" ht="17" thickBot="1">
+      <c r="B6" s="65"/>
+      <c r="C6" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="127">
+      <c r="G6" s="125">
         <f>ROUND(0.01,2)</f>
         <v>0.01</v>
       </c>
-      <c r="H6" s="140"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="69"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="67"/>
       <c r="O6" s="59"/>
     </row>
-    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
-      <c r="C7" s="142" t="s">
-        <v>121</v>
+    <row r="7" spans="2:15" ht="17" thickBot="1">
+      <c r="B7" s="65"/>
+      <c r="C7" s="140" t="s">
+        <v>111</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="143" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="161">
+        <v>112</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="141" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="159">
         <f>I7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="140"/>
-      <c r="I7" s="164">
+      <c r="H7" s="138"/>
+      <c r="I7" s="162">
         <f>Notes!E24</f>
         <v>0</v>
       </c>
-      <c r="J7" s="161">
+      <c r="J7" s="159">
         <f>Notes!E13</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="K7" s="161">
+      <c r="K7" s="159">
         <f>Notes!E21</f>
         <v>3.3E-3</v>
       </c>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="133"/>
-    </row>
-    <row r="8" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
-      <c r="C8" s="142" t="s">
-        <v>123</v>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="131"/>
+    </row>
+    <row r="8" spans="2:15" ht="17" thickBot="1">
+      <c r="B8" s="65"/>
+      <c r="C8" s="140" t="s">
+        <v>113</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="143" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="122">
+        <v>114</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="141" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="120">
         <f>M8</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="H8" s="140"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="171">
+      <c r="H8" s="138"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="169">
         <f>Notes!E44</f>
         <v>164988.7302779865</v>
       </c>
-      <c r="M8" s="171">
+      <c r="M8" s="169">
         <f>Notes!E52</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="N8" s="69"/>
-      <c r="O8" s="133" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="67"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="113"/>
-    </row>
-    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="131" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="65"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="111"/>
+    </row>
+    <row r="10" spans="2:15" ht="17" thickBot="1">
+      <c r="B10" s="65"/>
       <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
@@ -3926,21 +3830,21 @@
       <c r="N10" s="12"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
-      <c r="C11" s="78" t="s">
-        <v>112</v>
+    <row r="11" spans="2:15" ht="17" thickBot="1">
+      <c r="B11" s="65"/>
+      <c r="C11" s="76" t="s">
+        <v>102</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="128" t="s">
+      <c r="F11" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="122">
+      <c r="G11" s="120">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="74"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -3949,21 +3853,21 @@
       <c r="N11" s="12"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
-      <c r="C12" s="78" t="s">
-        <v>111</v>
+    <row r="12" spans="2:15" ht="17" thickBot="1">
+      <c r="B12" s="65"/>
+      <c r="C12" s="76" t="s">
+        <v>101</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="122">
+      <c r="G12" s="120">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="74"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -3972,31 +3876,31 @@
       <c r="N12" s="12"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="78" t="s">
+    <row r="13" spans="2:15" ht="17" thickBot="1">
+      <c r="B13" s="65"/>
+      <c r="C13" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="71" t="s">
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="122">
+      <c r="G13" s="120">
         <f>ROUND(15,0)</f>
         <v>15</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="118"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="67"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="116"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="65"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -4008,13 +3912,13 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="74"/>
+      <c r="N14" s="72"/>
       <c r="O14" s="59"/>
     </row>
-    <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
+    <row r="15" spans="2:15" ht="17" thickBot="1">
+      <c r="B15" s="65"/>
       <c r="C15" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4029,154 +3933,154 @@
       <c r="N15" s="12"/>
       <c r="O15" s="59"/>
     </row>
-    <row r="16" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="67"/>
-      <c r="C16" s="108" t="s">
-        <v>92</v>
+    <row r="16" spans="2:15" ht="17" thickBot="1">
+      <c r="B16" s="65"/>
+      <c r="C16" s="106" t="s">
+        <v>82</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="75">
         <f>Notes!E28</f>
         <v>12746.4</v>
       </c>
-      <c r="H16" s="141"/>
+      <c r="H16" s="139"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="119"/>
-    </row>
-    <row r="17" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="67"/>
-      <c r="C17" s="79" t="s">
+      <c r="N16" s="71"/>
+      <c r="O16" s="117"/>
+    </row>
+    <row r="17" spans="2:15" ht="17" thickBot="1">
+      <c r="B17" s="65"/>
+      <c r="C17" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="131" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="75">
         <v>1300</v>
       </c>
-      <c r="H17" s="141"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="123"/>
-    </row>
-    <row r="18" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
-      <c r="C18" s="115" t="s">
-        <v>93</v>
+      <c r="H17" s="139"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="121"/>
+    </row>
+    <row r="18" spans="2:15" ht="17" thickBot="1">
+      <c r="B18" s="65"/>
+      <c r="C18" s="113" t="s">
+        <v>83</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="80">
+      <c r="F18" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="78">
         <f>I18</f>
         <v>100</v>
       </c>
-      <c r="H18" s="141"/>
-      <c r="I18" s="139">
+      <c r="H18" s="139"/>
+      <c r="I18" s="137">
         <v>100</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="123"/>
-    </row>
-    <row r="19" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="67"/>
-      <c r="C19" s="108" t="s">
-        <v>94</v>
+      <c r="N18" s="71"/>
+      <c r="O18" s="121"/>
+    </row>
+    <row r="19" spans="2:15" ht="17" thickBot="1">
+      <c r="B19" s="65"/>
+      <c r="C19" s="106" t="s">
+        <v>84</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="141"/>
+      <c r="F19" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="139"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="123"/>
-    </row>
-    <row r="20" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="67"/>
-      <c r="C20" s="115" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="71" t="s">
+      <c r="N19" s="71"/>
+      <c r="O19" s="121"/>
+    </row>
+    <row r="20" spans="2:15" ht="17" thickBot="1">
+      <c r="B20" s="65"/>
+      <c r="C20" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="75">
         <v>0</v>
       </c>
-      <c r="H20" s="141"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="119"/>
-    </row>
-    <row r="21" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="67"/>
-      <c r="C21" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="138">
+      <c r="H20" s="139"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="117"/>
+    </row>
+    <row r="21" spans="2:15" ht="17" thickBot="1">
+      <c r="B21" s="65"/>
+      <c r="C21" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="136">
         <v>0</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="62" t="str">
-        <f>Dashboard!C32</f>
+    <row r="22" spans="2:15" ht="17" thickBot="1">
+      <c r="C22" s="60" t="str">
+        <f>Dashboard!C27</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="G22" s="139">
+      <c r="G22" s="137">
         <f>I22</f>
         <v>1500</v>
       </c>
-      <c r="I22" s="139">
+      <c r="I22" s="137">
         <f>Notes!E25</f>
         <v>1500</v>
       </c>
-      <c r="J22" s="76"/>
+      <c r="J22" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4185,8 +4089,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K21"/>
@@ -4195,22 +4099,22 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
     <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="45"/>
+    <col min="12" max="16384" width="33.1640625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -4220,9 +4124,9 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="49"/>
-      <c r="K2" s="175"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="173"/>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>21</v>
@@ -4234,9 +4138,9 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="176"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="174"/>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -4246,9 +4150,9 @@
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="54"/>
-      <c r="K4" s="176"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="174"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>28</v>
@@ -4264,19 +4168,19 @@
         <v>29</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="177" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="175" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="50"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -4286,9 +4190,9 @@
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="176"/>
-    </row>
-    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="174"/>
+    </row>
+    <row r="7" spans="2:11" ht="17" thickBot="1">
       <c r="B7" s="50"/>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -4298,25 +4202,25 @@
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="54"/>
-      <c r="K7" s="176"/>
-    </row>
-    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="174"/>
+    </row>
+    <row r="8" spans="2:11" ht="17" thickBot="1">
       <c r="B8" s="50"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="125" t="s">
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="134"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="132"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="50"/>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -4326,36 +4230,36 @@
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
       <c r="J9" s="54"/>
-      <c r="K9" s="176"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="174"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="50"/>
-      <c r="C10" s="135" t="str">
-        <f>Dashboard!C32</f>
+      <c r="C10" s="133" t="str">
+        <f>Dashboard!C27</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="136">
+      <c r="D10" s="130"/>
+      <c r="E10" s="130" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="130" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="134">
         <v>42948</v>
       </c>
-      <c r="J10" s="137" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" s="134" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="135" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="132" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="50"/>
-      <c r="C11" s="137" t="str">
+      <c r="C11" s="135" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
@@ -4366,11 +4270,11 @@
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
       <c r="J11" s="54"/>
-      <c r="K11" s="176"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="174"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="50"/>
-      <c r="C12" s="137"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
       <c r="F12" s="53"/>
@@ -4378,75 +4282,75 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="54"/>
-      <c r="K12" s="176"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="174"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="50"/>
-      <c r="C13" s="137" t="str">
+      <c r="C13" s="135" t="str">
         <f>Dashboard!C13</f>
         <v>storage.volume</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="132" t="s">
+      <c r="D13" s="130"/>
+      <c r="E13" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="130" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="130">
+        <v>2010</v>
+      </c>
+      <c r="H13" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="134">
+        <v>42948</v>
+      </c>
+      <c r="J13" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="132">
-        <v>2010</v>
-      </c>
-      <c r="H13" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="136">
-        <v>42948</v>
-      </c>
-      <c r="J13" s="146" t="s">
-        <v>127</v>
-      </c>
-      <c r="K13" s="134"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="132"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="50"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="134"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="135"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="132"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="50"/>
-      <c r="C15" s="137" t="str">
+      <c r="C15" s="135" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="132" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="136">
+      <c r="D15" s="130"/>
+      <c r="E15" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="130" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="134">
         <v>42948</v>
       </c>
-      <c r="J15" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="134"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J15" s="144" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="132"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="50"/>
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
@@ -4456,9 +4360,9 @@
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="54"/>
-      <c r="K16" s="176"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="174"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="50"/>
       <c r="C17" s="54" t="str">
         <f>Dashboard!C$14</f>
@@ -4466,26 +4370,26 @@
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="132" t="s">
-        <v>117</v>
+        <v>143</v>
+      </c>
+      <c r="F17" s="130" t="s">
+        <v>107</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="178">
+        <v>116</v>
+      </c>
+      <c r="I17" s="176">
         <v>42979</v>
       </c>
-      <c r="J17" s="179" t="s">
-        <v>152</v>
-      </c>
-      <c r="K17" s="176"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J17" s="177" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="174"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="50"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
@@ -4495,9 +4399,9 @@
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
       <c r="J18" s="54"/>
-      <c r="K18" s="176"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="174"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="50"/>
       <c r="C19" s="54" t="str">
         <f>Dashboard!C$14</f>
@@ -4505,26 +4409,26 @@
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="132" t="s">
-        <v>117</v>
+        <v>147</v>
+      </c>
+      <c r="F19" s="130" t="s">
+        <v>107</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="I19" s="178">
+        <v>116</v>
+      </c>
+      <c r="I19" s="176">
         <v>42979</v>
       </c>
-      <c r="J19" s="157" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="176"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="155" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="174"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="50"/>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
@@ -4534,23 +4438,23 @@
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="176"/>
-    </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="183"/>
+      <c r="K20" s="174"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1">
+      <c r="B21" s="178"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="181"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J17" r:id="rId1"/>
+    <hyperlink ref="J17" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4558,30 +4462,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="147" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="147" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="147" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="147" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="147" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" style="147" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="147" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="147"/>
-    <col min="10" max="10" width="136.28515625" style="147" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="147"/>
+    <col min="1" max="1" width="3.5" style="145" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="145" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="145" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="145" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="145" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="145" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="145"/>
+    <col min="10" max="10" width="136.33203125" style="145" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="145"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="148"/>
+    <row r="2" spans="2:10" ht="17" thickBot="1"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="146"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -4589,846 +4493,846 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="149"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="99"/>
+      <c r="J3" s="147"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="97"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="150"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="151"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="151"/>
+      <c r="J4" s="148"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="149"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="151"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="149"/>
       <c r="C6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="149"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="152">
+        <v>10</v>
+      </c>
+      <c r="F7" s="152" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="149"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="150" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="152">
+        <v>10</v>
+      </c>
+      <c r="F8" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152" t="s">
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="149"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="150" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="152">
+        <v>4.18</v>
+      </c>
+      <c r="F9" s="152" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="151"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="149"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="152">
+        <v>10</v>
+      </c>
+      <c r="F10" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="150" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="149"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="151"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="152" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="154">
-        <v>10</v>
-      </c>
-      <c r="F7" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="153"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="151"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="152" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="154">
-        <v>10</v>
-      </c>
-      <c r="F8" s="154" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="151"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="152" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="154">
-        <v>4.18</v>
-      </c>
-      <c r="F9" s="154" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="153"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="151"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="152" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="154">
-        <v>10</v>
-      </c>
-      <c r="F10" s="154" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="153"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="151"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="152" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="155">
+      <c r="E11" s="153">
         <f>E7*60*E8/E9/E10</f>
         <v>143.54066985645935</v>
       </c>
-      <c r="F11" s="154" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="153"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="151"/>
+      <c r="F11" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="151"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="149"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="152" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="155">
+      <c r="D12" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="153">
         <v>3600000</v>
       </c>
-      <c r="F12" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="153"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="151"/>
+      <c r="F12" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="151"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="149"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="156" t="str">
+      <c r="D13" s="154" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="152">
         <f>MROUND(E11*E10*E9/E12,0.0001)</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="F13" s="163" t="str">
+      <c r="F13" s="161" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="151"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="151"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="149"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="153"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="151"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="151"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="149"/>
       <c r="C15" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="152">
+        <v>20</v>
+      </c>
+      <c r="F15" s="152" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="151"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="149"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="150" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="152">
+        <v>10</v>
+      </c>
+      <c r="F16" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="151"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="149"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="150" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="152">
+        <v>4.18</v>
+      </c>
+      <c r="F17" s="152" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="149"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="152" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="154">
-        <v>20</v>
-      </c>
-      <c r="F15" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="151"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="152" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="154">
+      <c r="E18" s="152">
         <v>10</v>
       </c>
-      <c r="F16" s="154" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="153"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="151"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="152" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="154">
-        <v>4.18</v>
-      </c>
-      <c r="F17" s="154" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="153"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="151"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="152" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="154">
-        <v>10</v>
-      </c>
-      <c r="F18" s="154" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="151"/>
+      <c r="F18" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="150" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="149"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="152" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="155">
+      <c r="D19" s="150" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="153">
         <f>E15*60*E16/E17/E18</f>
         <v>287.08133971291869</v>
       </c>
-      <c r="F19" s="154" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="151"/>
+      <c r="F19" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="149"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="152" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="155">
+      <c r="D20" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="153">
         <v>3600000</v>
       </c>
-      <c r="F20" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="153"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="151"/>
+      <c r="F20" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="149"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="156" t="str">
+      <c r="D21" s="154" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="E21" s="154">
+      <c r="E21" s="152">
         <f>MROUND(E19*E18*E17/E20,0.0001)</f>
         <v>3.3E-3</v>
       </c>
-      <c r="F21" s="163" t="str">
+      <c r="F21" s="161" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="153"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="153"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="151"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="151"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="149"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="149"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="149"/>
       <c r="C24" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="156" t="str">
+        <v>106</v>
+      </c>
+      <c r="D24" s="154" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="E24" s="147">
+      <c r="E24" s="145">
         <v>0</v>
       </c>
-      <c r="F24" s="163" t="str">
+      <c r="F24" s="161" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
-      <c r="G24" s="152" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="153"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="151"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152" t="str">
-        <f>Dashboard!C32</f>
+      <c r="G24" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="149"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150" t="str">
+        <f>Dashboard!C27</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="E25" s="152">
+      <c r="E25" s="150">
         <v>1500</v>
       </c>
-      <c r="F25" s="152" t="s">
+      <c r="F25" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="153"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="151"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="152">
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="149"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="150">
         <v>13000</v>
       </c>
-      <c r="F26" s="152" t="s">
+      <c r="F26" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="153"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="172">
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="149"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="170">
         <v>253.6</v>
       </c>
-      <c r="F27" s="152" t="s">
+      <c r="F27" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="152" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="151"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="173" t="str">
-        <f>Dashboard!C30</f>
+      <c r="G27" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="171" t="str">
+        <f>Dashboard!C25</f>
         <v>initial_investment</v>
       </c>
-      <c r="E28" s="174">
+      <c r="E28" s="172">
         <f>E26-E27</f>
         <v>12746.4</v>
       </c>
-      <c r="F28" s="152" t="s">
+      <c r="F28" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="151"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="153"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="151"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="153"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="151"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="153"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="151"/>
-      <c r="C33" s="169" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="169"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="153"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="151"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152" t="s">
-        <v>147</v>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="151"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="151"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="149"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="151"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="149"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="151"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="149"/>
+      <c r="C33" s="167" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="167"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="149"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150" t="s">
+        <v>137</v>
       </c>
       <c r="E34">
         <v>4.18</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="153"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="151"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152" t="s">
-        <v>146</v>
+        <v>127</v>
+      </c>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="151"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="149"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150" t="s">
+        <v>136</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="153"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="151"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152">
+        <v>129</v>
+      </c>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="151"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="149"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150">
         <f>E34*E35</f>
         <v>41.8</v>
       </c>
-      <c r="F36" s="152" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="153"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="151"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152">
+      <c r="F36" s="150" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="151"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="149"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150">
         <v>3600000</v>
       </c>
-      <c r="F37" s="152" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="153"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="151"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="165">
+      <c r="F37" s="150" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="151"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="149"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="163">
         <f>E36/E37</f>
         <v>1.161111111111111E-5</v>
       </c>
-      <c r="F38" s="152" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="153"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="151"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="147">
+      <c r="F38" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="151"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="149"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="145">
         <v>500</v>
       </c>
-      <c r="F39" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="153"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="151"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="152">
+      <c r="F39" s="145" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="151"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="149"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="150" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="150">
         <v>1159</v>
       </c>
-      <c r="F40" s="147" t="s">
+      <c r="F40" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="153"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="151"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="166">
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="149"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="164">
         <f>E40/1.21</f>
         <v>957.85123966942149</v>
       </c>
-      <c r="F41" s="147" t="s">
+      <c r="F41" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="153"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="151"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" s="168">
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="151"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="149"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="150" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="166">
         <f>E41/E39</f>
         <v>1.9157024793388431</v>
       </c>
-      <c r="F42" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="153"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="151"/>
-      <c r="C43" s="152"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="153"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="151"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="156" t="str">
+      <c r="F42" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="151"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="149"/>
+      <c r="C43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="151"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="149"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="154" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E44" s="167">
+      <c r="E44" s="165">
         <f>E42/E38</f>
         <v>164988.7302779865</v>
       </c>
-      <c r="F44" s="152" t="s">
-        <v>124</v>
-      </c>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="153"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="151"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="153"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="151"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="153"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="151"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="153"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="151"/>
+      <c r="F44" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="151"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="149"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="151"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="149"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="151"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="149"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="151"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="149"/>
       <c r="C48" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="152"/>
-      <c r="E48" s="147">
+        <v>147</v>
+      </c>
+      <c r="D48" s="150"/>
+      <c r="E48" s="145">
         <v>300</v>
       </c>
-      <c r="F48" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="153"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="151"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" s="166">
+      <c r="F48" s="145" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="151"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="149"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="164">
         <v>539</v>
       </c>
-      <c r="F49" s="147" t="s">
+      <c r="F49" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="153"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="151"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="168">
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="151"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="149"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="150" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="166">
         <f>E49/E48</f>
         <v>1.7966666666666666</v>
       </c>
-      <c r="F50" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="153"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="151"/>
-      <c r="C51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="153"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="151"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="156" t="str">
+      <c r="F50" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="150"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="151"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="149"/>
+      <c r="C51" s="150"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="151"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="149"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="154" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E52" s="167">
+      <c r="E52" s="165">
         <f>E50/E38</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="F52" s="152" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="153"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="151"/>
-      <c r="C53" s="152"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="153"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="151"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="152"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="152"/>
-      <c r="I54" s="152"/>
-      <c r="J54" s="153"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="151"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="152"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="152"/>
-      <c r="J55" s="153"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="151"/>
-      <c r="C56" s="152"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="152"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="152"/>
-      <c r="J56" s="153"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="151"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="153"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="151"/>
+      <c r="F52" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="151"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="149"/>
+      <c r="C53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="151"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="149"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="151"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="149"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="151"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="149"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="155"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="151"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="149"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="151"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="149"/>
       <c r="C58" s="14"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="153"/>
-    </row>
-    <row r="59" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="158"/>
-      <c r="C59" s="159"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="159"/>
-      <c r="F59" s="159"/>
-      <c r="G59" s="159"/>
-      <c r="H59" s="159"/>
-      <c r="I59" s="159"/>
-      <c r="J59" s="160"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="150"/>
+      <c r="J58" s="151"/>
+    </row>
+    <row r="59" spans="2:10" ht="17" thickBot="1">
+      <c r="B59" s="156"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="157"/>
+      <c r="J59" s="158"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nodes_source_analyses/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77E0079-F724-8941-8760-B7454625C70B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168AE316-2464-A245-9F2C-75031CEEE08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="460" windowWidth="13960" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="174">
   <si>
     <t>Source</t>
   </si>
@@ -589,6 +595,69 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>Vesta</t>
+  </si>
+  <si>
+    <t>Vesta Functioneel Ontwerp 4.0</t>
+  </si>
+  <si>
+    <t>vaste investeringskosten min</t>
+  </si>
+  <si>
+    <t>euro/aansluiting</t>
+  </si>
+  <si>
+    <t>variable investeringskosten min</t>
+  </si>
+  <si>
+    <t>euro/kW</t>
+  </si>
+  <si>
+    <t>totale investeringskosten min</t>
+  </si>
+  <si>
+    <t>vaste investeringskosten max</t>
+  </si>
+  <si>
+    <t>variable investeringskosten max</t>
+  </si>
+  <si>
+    <t>totale investeringskosten max</t>
+  </si>
+  <si>
+    <t>gemiddelde nemen!</t>
+  </si>
+  <si>
+    <t>investment_costs</t>
+  </si>
+  <si>
+    <t>euro/unit</t>
+  </si>
+  <si>
+    <t>dit is inclusief de cost_of_installing, dus die gaat naar nul</t>
+  </si>
+  <si>
+    <t>LETOP: het lijkt erop alsof de variable kosten zijn omgewisseld tussen min/max</t>
+  </si>
+  <si>
+    <t>Ki_w_BWP_vast_min</t>
+  </si>
+  <si>
+    <t>Ki_w_BWP_vast_max</t>
+  </si>
+  <si>
+    <t>Ki_w_BWP_var_max</t>
+  </si>
+  <si>
+    <t>Ki_w_BWP_var_min</t>
+  </si>
+  <si>
+    <t>initital_investment</t>
+  </si>
 </sst>
 </file>
 
@@ -600,12 +669,19 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -738,6 +814,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,6 +822,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -752,6 +830,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,6 +838,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,6 +846,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -773,17 +854,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,6 +881,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,6 +889,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1114,564 +1205,562 @@
   </borders>
   <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="177" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="177" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1955,8 +2044,8 @@
       <xdr:rowOff>19538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>10686733</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6033</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>105449</xdr:rowOff>
     </xdr:to>
@@ -2087,8 +2176,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>10591800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -2132,7 +2221,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>11033760</xdr:colOff>
+      <xdr:colOff>10386060</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
@@ -2159,6 +2248,50 @@
         <a:xfrm>
           <a:off x="13756640" y="10739120"/>
           <a:ext cx="10922000" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9398000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>7815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D32B134-A4DF-584A-AA6D-B365A7209042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11023600" y="11366500"/>
+          <a:ext cx="10058400" cy="5926015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2674,105 +2807,105 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="82"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="85" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="87" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="86" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="84" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="87" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="89" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="88" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="90" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="89" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="91" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="90" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="92" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="94" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="93" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="95" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="94" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="92"/>
-      <c r="C23" s="96" t="s">
+      <c r="B23" s="91"/>
+      <c r="C23" s="95" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2789,8 +2922,8 @@
   </sheetPr>
   <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -2815,28 +2948,28 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="186"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:11" ht="38" customHeight="1">
-      <c r="B4" s="188"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
@@ -2855,11 +2988,11 @@
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
-      <c r="B7" s="97"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="97" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2873,7 +3006,7 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="104"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
@@ -2901,7 +3034,7 @@
     </row>
     <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="121" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -2913,14 +3046,14 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="128" t="s">
+      <c r="I10" s="127" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="121" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -2939,7 +3072,7 @@
     </row>
     <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="20"/>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="121" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -2958,17 +3091,17 @@
     </row>
     <row r="13" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="20"/>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="140" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="160">
+      <c r="E13" s="158">
         <f>'Research data'!G7</f>
         <v>0</v>
       </c>
-      <c r="F13" s="141"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="33"/>
       <c r="H13" s="27"/>
       <c r="I13" s="31" t="str">
@@ -2979,20 +3112,20 @@
     </row>
     <row r="14" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="20"/>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="140" t="s">
         <v>113</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="143">
+      <c r="E14" s="141">
         <f>'Research data'!G8</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="F14" s="141"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="33"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="128" t="s">
+      <c r="I14" s="127" t="s">
         <v>105</v>
       </c>
       <c r="J14" s="42"/>
@@ -3014,7 +3147,7 @@
       <c r="I15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="105"/>
+      <c r="J15" s="104"/>
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="2:11" ht="17" thickBot="1">
@@ -3034,12 +3167,12 @@
       <c r="I16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="105"/>
+      <c r="J16" s="104"/>
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="37"/>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="121" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -3054,7 +3187,7 @@
       <c r="I17" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="105"/>
+      <c r="J17" s="104"/>
       <c r="K17" s="32"/>
     </row>
     <row r="18" spans="2:11" ht="17" thickBot="1">
@@ -3074,7 +3207,7 @@
       <c r="I18" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="105"/>
+      <c r="J18" s="104"/>
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="2:11" ht="17" thickBot="1">
@@ -3094,7 +3227,7 @@
       <c r="I19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="105"/>
+      <c r="J19" s="104"/>
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="2:11" ht="17" thickBot="1">
@@ -3114,7 +3247,7 @@
       <c r="I20" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="105"/>
+      <c r="J20" s="104"/>
       <c r="K20" s="32"/>
     </row>
     <row r="21" spans="2:11" ht="17" thickBot="1">
@@ -3136,7 +3269,7 @@
       <c r="I21" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="105"/>
+      <c r="J21" s="104"/>
     </row>
     <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="37"/>
@@ -3158,31 +3291,31 @@
       <c r="I22" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="105"/>
+      <c r="J22" s="104"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="37"/>
       <c r="C23" s="74"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="32"/>
       <c r="G23" s="74"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
-      <c r="J23" s="105"/>
+      <c r="J23" s="104"/>
     </row>
     <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
       <c r="F24" s="32"/>
       <c r="G24" s="74"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="105"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="37"/>
@@ -3194,17 +3327,17 @@
       </c>
       <c r="E25" s="44">
         <f>'Research data'!G16</f>
-        <v>12746.4</v>
+        <v>13904</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="33"/>
-      <c r="I25" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="105"/>
+      <c r="I25" s="183" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="37"/>
@@ -3225,7 +3358,7 @@
       <c r="I26" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="105"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="37"/>
@@ -3236,19 +3369,18 @@
         <v>31</v>
       </c>
       <c r="E27" s="44">
-        <f>'Research data'!G22</f>
-        <v>1500</v>
+        <f>'Research data'!G21</f>
+        <v>0</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="81" t="str">
-        <f>Sources!E10</f>
-        <v>DHPA</v>
-      </c>
-      <c r="J27" s="105"/>
+      <c r="I27" s="183" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" s="104"/>
     </row>
     <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="37"/>
@@ -3269,7 +3401,7 @@
       <c r="I28" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J28" s="105"/>
+      <c r="J28" s="104"/>
     </row>
     <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="37"/>
@@ -3279,8 +3411,8 @@
       <c r="D29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="99">
-        <f>'Research data'!G18</f>
+      <c r="E29" s="98">
+        <f>'Research data'!G17</f>
         <v>100</v>
       </c>
       <c r="F29" s="33"/>
@@ -3288,11 +3420,11 @@
         <v>55</v>
       </c>
       <c r="H29" s="33"/>
-      <c r="I29" s="81" t="str">
+      <c r="I29" s="80" t="str">
         <f>Sources!E10</f>
         <v>DHPA</v>
       </c>
-      <c r="J29" s="105"/>
+      <c r="J29" s="104"/>
     </row>
     <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="37"/>
@@ -3303,7 +3435,7 @@
         <v>50</v>
       </c>
       <c r="E30" s="43">
-        <f>'Research data'!G20</f>
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F30" s="33"/>
@@ -3311,10 +3443,10 @@
         <v>56</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="81" t="s">
+      <c r="I30" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="105"/>
+      <c r="J30" s="104"/>
     </row>
     <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="37"/>
@@ -3324,7 +3456,7 @@
       <c r="D31" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="102">
+      <c r="E31" s="101">
         <v>0</v>
       </c>
       <c r="F31" s="33"/>
@@ -3332,10 +3464,10 @@
         <v>57</v>
       </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="112" t="s">
+      <c r="I31" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="105"/>
+      <c r="J31" s="104"/>
     </row>
     <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="37"/>
@@ -3346,17 +3478,17 @@
         <v>2</v>
       </c>
       <c r="E32" s="43">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="33"/>
-      <c r="I32" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="105"/>
+      <c r="I32" s="180" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="104"/>
     </row>
     <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
@@ -3375,31 +3507,31 @@
       <c r="I33" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="105"/>
+      <c r="J33" s="104"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="37"/>
       <c r="C34" s="33"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="103"/>
+      <c r="E34" s="102"/>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="105"/>
+      <c r="J34" s="104"/>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
       <c r="C35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="103"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
-      <c r="J35" s="105"/>
+      <c r="J35" s="104"/>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
@@ -3421,17 +3553,17 @@
       <c r="I36" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="105"/>
+      <c r="J36" s="104"/>
     </row>
     <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
-      <c r="C37" s="127" t="s">
+      <c r="C37" s="126" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="99">
+      <c r="E37" s="98">
         <f>'Research data'!G12</f>
         <v>0</v>
       </c>
@@ -3440,10 +3572,10 @@
         <v>25</v>
       </c>
       <c r="H37" s="33"/>
-      <c r="I37" s="114" t="s">
+      <c r="I37" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="105"/>
+      <c r="J37" s="104"/>
     </row>
     <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
@@ -3462,10 +3594,10 @@
         <v>24</v>
       </c>
       <c r="H38" s="33"/>
-      <c r="I38" s="115" t="s">
+      <c r="I38" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="105"/>
+      <c r="J38" s="104"/>
     </row>
     <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
@@ -3481,18 +3613,18 @@
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="123" t="s">
+      <c r="I39" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="105"/>
+      <c r="J39" s="104"/>
     </row>
     <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="37"/>
-      <c r="C40" s="118" t="s">
+      <c r="C40" s="117" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="19"/>
-      <c r="E40" s="99">
+      <c r="E40" s="98">
         <v>6</v>
       </c>
       <c r="F40" s="33"/>
@@ -3501,15 +3633,15 @@
       <c r="I40" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J40" s="105"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="37"/>
-      <c r="C41" s="118" t="s">
+      <c r="C41" s="117" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="19"/>
-      <c r="E41" s="99">
+      <c r="E41" s="98">
         <v>0</v>
       </c>
       <c r="F41" s="33"/>
@@ -3518,15 +3650,15 @@
       <c r="I41" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J41" s="105"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="37"/>
-      <c r="C42" s="118" t="s">
+      <c r="C42" s="117" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="19"/>
-      <c r="E42" s="99">
+      <c r="E42" s="98">
         <v>130</v>
       </c>
       <c r="F42" s="33"/>
@@ -3535,15 +3667,15 @@
       <c r="I42" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J42" s="105"/>
+      <c r="J42" s="104"/>
     </row>
     <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="37"/>
-      <c r="C43" s="118" t="s">
+      <c r="C43" s="117" t="s">
         <v>92</v>
       </c>
       <c r="D43" s="19"/>
-      <c r="E43" s="99">
+      <c r="E43" s="98">
         <v>4</v>
       </c>
       <c r="F43" s="33"/>
@@ -3552,15 +3684,15 @@
       <c r="I43" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="105"/>
+      <c r="J43" s="104"/>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1">
       <c r="B44" s="37"/>
-      <c r="C44" s="118" t="s">
+      <c r="C44" s="117" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="19"/>
-      <c r="E44" s="99">
+      <c r="E44" s="98">
         <v>40</v>
       </c>
       <c r="F44" s="33"/>
@@ -3569,7 +3701,7 @@
       <c r="I44" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J44" s="105"/>
+      <c r="J44" s="104"/>
     </row>
     <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B45" s="38"/>
@@ -3596,9 +3728,9 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:O22"/>
+  <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3612,14 +3744,14 @@
     <col min="7" max="7" width="7.5" style="60" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="60" customWidth="1"/>
     <col min="9" max="10" width="8.5" style="60" customWidth="1"/>
-    <col min="11" max="13" width="16" style="60" customWidth="1"/>
-    <col min="14" max="14" width="3" style="61" customWidth="1"/>
-    <col min="15" max="15" width="60" style="60" customWidth="1"/>
-    <col min="16" max="16384" width="10.6640625" style="60"/>
+    <col min="11" max="14" width="16" style="60" customWidth="1"/>
+    <col min="15" max="15" width="3" style="61" customWidth="1"/>
+    <col min="16" max="16" width="60" style="60" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:16" ht="17" thickBot="1"/>
+    <row r="2" spans="2:16">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -3632,48 +3764,52 @@
       <c r="K2" s="63"/>
       <c r="L2" s="63"/>
       <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="2:15" s="21" customFormat="1">
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="63"/>
+    </row>
+    <row r="3" spans="2:16" s="21" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="109" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="110" t="str">
+      <c r="J3" s="109" t="str">
         <f>Sources!E13</f>
         <v>ISSO 72 and Quintel calc</v>
       </c>
-      <c r="K3" s="110" t="str">
+      <c r="K3" s="109" t="str">
         <f>Sources!E15</f>
         <v>Warmtepompforum</v>
       </c>
-      <c r="L3" s="110" t="str">
+      <c r="L3" s="109" t="str">
         <f>Sources!E17</f>
         <v>Installand</v>
       </c>
-      <c r="M3" s="110" t="str">
+      <c r="M3" s="109" t="str">
         <f>Sources!E19</f>
         <v>Nefit</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="110" t="s">
+      <c r="N3" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="58"/>
+      <c r="P3" s="109" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:16">
       <c r="B4" s="65"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -3686,10 +3822,11 @@
       <c r="K4" s="67"/>
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="2:15" ht="17" thickBot="1">
+      <c r="N4" s="67"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="2:16" ht="17" thickBot="1">
       <c r="B5" s="65"/>
       <c r="C5" s="29" t="s">
         <v>77</v>
@@ -3704,11 +3841,12 @@
       <c r="K5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="59"/>
-    </row>
-    <row r="6" spans="2:15" ht="17" thickBot="1">
+      <c r="O5" s="10"/>
+      <c r="P5" s="59"/>
+    </row>
+    <row r="6" spans="2:16" ht="17" thickBot="1">
       <c r="B6" s="65"/>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="123" t="s">
         <v>100</v>
       </c>
       <c r="D6" s="68"/>
@@ -3716,87 +3854,90 @@
       <c r="F6" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="125">
+      <c r="G6" s="124">
         <f>ROUND(0.01,2)</f>
         <v>0.01</v>
       </c>
-      <c r="H6" s="138"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
       <c r="M6" s="70"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="59"/>
-    </row>
-    <row r="7" spans="2:15" ht="17" thickBot="1">
+      <c r="N6" s="70"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="59"/>
+    </row>
+    <row r="7" spans="2:16" ht="17" thickBot="1">
       <c r="B7" s="65"/>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="138" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="68"/>
-      <c r="F7" s="141" t="s">
+      <c r="F7" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="159">
+      <c r="G7" s="157">
         <f>I7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="162">
+      <c r="H7" s="136"/>
+      <c r="I7" s="160">
         <f>Notes!E24</f>
         <v>0</v>
       </c>
-      <c r="J7" s="159">
+      <c r="J7" s="157">
         <f>Notes!E13</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="K7" s="159">
+      <c r="K7" s="157">
         <f>Notes!E21</f>
         <v>3.3E-3</v>
       </c>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="131"/>
-    </row>
-    <row r="8" spans="2:15" ht="17" thickBot="1">
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="129"/>
+    </row>
+    <row r="8" spans="2:16" ht="17" thickBot="1">
       <c r="B8" s="65"/>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="138" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>114</v>
       </c>
       <c r="E8" s="68"/>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="119">
         <f>M8</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="H8" s="138"/>
+      <c r="H8" s="136"/>
       <c r="I8" s="70"/>
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
-      <c r="L8" s="169">
+      <c r="L8" s="167">
         <f>Notes!E44</f>
         <v>164988.7302779865</v>
       </c>
-      <c r="M8" s="169">
+      <c r="M8" s="167">
         <f>Notes!E52</f>
         <v>154736.84210526317</v>
       </c>
       <c r="N8" s="67"/>
-      <c r="O8" s="131" t="s">
+      <c r="O8" s="67"/>
+      <c r="P8" s="129" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:16">
       <c r="B9" s="65"/>
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
@@ -3810,9 +3951,10 @@
       <c r="L9" s="71"/>
       <c r="M9" s="71"/>
       <c r="N9" s="71"/>
-      <c r="O9" s="111"/>
-    </row>
-    <row r="10" spans="2:15" ht="17" thickBot="1">
+      <c r="O9" s="71"/>
+      <c r="P9" s="110"/>
+    </row>
+    <row r="10" spans="2:16" ht="17" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="29" t="s">
         <v>7</v>
@@ -3827,20 +3969,21 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="2:15" ht="17" thickBot="1">
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="30"/>
+    </row>
+    <row r="11" spans="2:16" ht="17" thickBot="1">
       <c r="B11" s="65"/>
       <c r="C11" s="76" t="s">
         <v>102</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="119">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
@@ -3850,10 +3993,11 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="2:15" ht="17" thickBot="1">
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="30"/>
+    </row>
+    <row r="12" spans="2:16" ht="17" thickBot="1">
       <c r="B12" s="65"/>
       <c r="C12" s="76" t="s">
         <v>101</v>
@@ -3863,7 +4007,7 @@
       <c r="F12" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="119">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
@@ -3873,10 +4017,11 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="2:15" ht="17" thickBot="1">
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="2:16" ht="17" thickBot="1">
       <c r="B13" s="65"/>
       <c r="C13" s="76" t="s">
         <v>5</v>
@@ -3886,7 +4031,7 @@
       <c r="F13" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="119">
         <f>ROUND(15,0)</f>
         <v>15</v>
       </c>
@@ -3896,10 +4041,11 @@
       <c r="K13" s="71"/>
       <c r="L13" s="71"/>
       <c r="M13" s="71"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="116"/>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="115"/>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="65"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -3912,10 +4058,11 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="59"/>
-    </row>
-    <row r="15" spans="2:15" ht="17" thickBot="1">
+      <c r="N14" s="12"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="59"/>
+    </row>
+    <row r="15" spans="2:16" ht="17" thickBot="1">
       <c r="B15" s="65"/>
       <c r="C15" s="13" t="s">
         <v>81</v>
@@ -3931,156 +4078,146 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="59"/>
-    </row>
-    <row r="16" spans="2:15" ht="17" thickBot="1">
+      <c r="O15" s="12"/>
+      <c r="P15" s="59"/>
+    </row>
+    <row r="16" spans="2:16" ht="17" thickBot="1">
       <c r="B16" s="65"/>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="105" t="s">
         <v>82</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="105" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="75">
-        <f>Notes!E28</f>
-        <v>12746.4</v>
-      </c>
-      <c r="H16" s="139"/>
+        <f>N16</f>
+        <v>13904</v>
+      </c>
+      <c r="H16" s="137"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="117"/>
-    </row>
-    <row r="17" spans="2:15" ht="17" thickBot="1">
+      <c r="N16" s="167">
+        <f>Notes!E65</f>
+        <v>13904</v>
+      </c>
+      <c r="O16" s="71"/>
+      <c r="P16" s="116"/>
+    </row>
+    <row r="17" spans="2:16" ht="17" thickBot="1">
       <c r="B17" s="65"/>
-      <c r="C17" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="75">
-        <v>1300</v>
-      </c>
-      <c r="H17" s="139"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="121"/>
-    </row>
-    <row r="18" spans="2:15" ht="17" thickBot="1">
+      <c r="C17" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="77">
+        <f>I17</f>
+        <v>100</v>
+      </c>
+      <c r="H17" s="137"/>
+      <c r="I17" s="135">
+        <v>100</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="120"/>
+    </row>
+    <row r="18" spans="2:16" ht="17" thickBot="1">
       <c r="B18" s="65"/>
-      <c r="C18" s="113" t="s">
-        <v>83</v>
+      <c r="C18" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="78">
-        <f>I18</f>
-        <v>100</v>
-      </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="137">
-        <v>100</v>
-      </c>
+      <c r="F18" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="77"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="121"/>
-    </row>
-    <row r="19" spans="2:15" ht="17" thickBot="1">
+      <c r="N18" s="12"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="120"/>
+    </row>
+    <row r="19" spans="2:16" ht="17" thickBot="1">
       <c r="B19" s="65"/>
-      <c r="C19" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="C19" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="75">
+        <v>0</v>
+      </c>
+      <c r="H19" s="137"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
       <c r="N19" s="71"/>
-      <c r="O19" s="121"/>
-    </row>
-    <row r="20" spans="2:15" ht="17" thickBot="1">
+      <c r="O19" s="71"/>
+      <c r="P19" s="116"/>
+    </row>
+    <row r="20" spans="2:16" ht="17" thickBot="1">
       <c r="B20" s="65"/>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="75">
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="134">
         <v>0</v>
       </c>
-      <c r="H20" s="139"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="71"/>
       <c r="J20" s="71"/>
       <c r="K20" s="71"/>
       <c r="L20" s="71"/>
       <c r="M20" s="71"/>
       <c r="N20" s="71"/>
-      <c r="O20" s="117"/>
-    </row>
-    <row r="21" spans="2:15" ht="17" thickBot="1">
-      <c r="B21" s="65"/>
-      <c r="C21" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="107" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="136">
-        <v>0</v>
-      </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="2:15" ht="17" thickBot="1">
-      <c r="C22" s="60" t="str">
+      <c r="O20" s="71"/>
+      <c r="P20" s="30"/>
+    </row>
+    <row r="21" spans="2:16" ht="17" thickBot="1">
+      <c r="C21" s="60" t="str">
         <f>Dashboard!C27</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="G22" s="137">
-        <f>I22</f>
-        <v>1500</v>
-      </c>
-      <c r="I22" s="137">
+      <c r="G21" s="182">
+        <f>N21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="135">
         <f>Notes!E25</f>
         <v>1500</v>
       </c>
-      <c r="J22" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="N21" s="167">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4096,7 +4233,7 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
@@ -4124,7 +4261,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="49"/>
-      <c r="K2" s="173"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="50"/>
@@ -4138,7 +4275,7 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="174"/>
+      <c r="K3" s="172"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="50"/>
@@ -4150,7 +4287,7 @@
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="54"/>
-      <c r="K4" s="174"/>
+      <c r="K4" s="172"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="55"/>
@@ -4176,7 +4313,7 @@
       <c r="J5" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="175" t="s">
+      <c r="K5" s="173" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4190,7 +4327,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="174"/>
+      <c r="K6" s="172"/>
     </row>
     <row r="7" spans="2:11" ht="17" thickBot="1">
       <c r="B7" s="50"/>
@@ -4202,64 +4339,76 @@
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="54"/>
-      <c r="K7" s="174"/>
+      <c r="K7" s="172"/>
     </row>
     <row r="8" spans="2:11" ht="17" thickBot="1">
       <c r="B8" s="50"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130" t="s">
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="123" t="s">
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="132"/>
+      <c r="K8" s="130"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="50"/>
-      <c r="C9" s="53"/>
+      <c r="C9" s="53" t="s">
+        <v>173</v>
+      </c>
       <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="E9" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="174">
+        <v>43800</v>
+      </c>
       <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="174"/>
+      <c r="I9" s="174">
+        <v>43831</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="172"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="50"/>
-      <c r="C10" s="133" t="str">
+      <c r="C10" s="131" t="str">
         <f>Dashboard!C27</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130" t="s">
+      <c r="D10" s="128"/>
+      <c r="E10" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="130" t="s">
+      <c r="F10" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="134">
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="132">
         <v>42948</v>
       </c>
-      <c r="J10" s="135" t="s">
+      <c r="J10" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="132" t="s">
+      <c r="K10" s="130" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="50"/>
-      <c r="C11" s="135" t="str">
+      <c r="C11" s="133" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
@@ -4270,11 +4419,11 @@
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
       <c r="J11" s="54"/>
-      <c r="K11" s="174"/>
+      <c r="K11" s="172"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="50"/>
-      <c r="C12" s="135"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
       <c r="F12" s="53"/>
@@ -4282,73 +4431,73 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="54"/>
-      <c r="K12" s="174"/>
+      <c r="K12" s="172"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="50"/>
-      <c r="C13" s="135" t="str">
+      <c r="C13" s="133" t="str">
         <f>Dashboard!C13</f>
         <v>storage.volume</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130" t="s">
+      <c r="D13" s="128"/>
+      <c r="E13" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="130">
+      <c r="G13" s="128">
         <v>2010</v>
       </c>
-      <c r="H13" s="130" t="s">
+      <c r="H13" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="134">
+      <c r="I13" s="132">
         <v>42948</v>
       </c>
-      <c r="J13" s="144" t="s">
+      <c r="J13" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="K13" s="132"/>
+      <c r="K13" s="130"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="50"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="130"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="50"/>
-      <c r="C15" s="135" t="str">
+      <c r="C15" s="133" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130" t="s">
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="130" t="s">
+      <c r="F15" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="130" t="s">
+      <c r="G15" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="130" t="s">
+      <c r="H15" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="134">
+      <c r="I15" s="132">
         <v>42948</v>
       </c>
-      <c r="J15" s="144" t="s">
+      <c r="J15" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="K15" s="132"/>
+      <c r="K15" s="130"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="50"/>
@@ -4360,7 +4509,7 @@
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="54"/>
-      <c r="K16" s="174"/>
+      <c r="K16" s="172"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="50"/>
@@ -4372,7 +4521,7 @@
       <c r="E17" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="130" t="s">
+      <c r="F17" s="128" t="s">
         <v>107</v>
       </c>
       <c r="G17" s="53" t="s">
@@ -4381,13 +4530,13 @@
       <c r="H17" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="176">
+      <c r="I17" s="174">
         <v>42979</v>
       </c>
-      <c r="J17" s="177" t="s">
+      <c r="J17" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="K17" s="174"/>
+      <c r="K17" s="172"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="50"/>
@@ -4399,7 +4548,7 @@
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
       <c r="J18" s="54"/>
-      <c r="K18" s="174"/>
+      <c r="K18" s="172"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="50"/>
@@ -4411,7 +4560,7 @@
       <c r="E19" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="128" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="53" t="s">
@@ -4420,13 +4569,13 @@
       <c r="H19" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="176">
+      <c r="I19" s="174">
         <v>42979</v>
       </c>
-      <c r="J19" s="155" t="s">
+      <c r="J19" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="K19" s="174"/>
+      <c r="K19" s="172"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="50"/>
@@ -4438,19 +4587,19 @@
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="174"/>
+      <c r="K20" s="172"/>
     </row>
     <row r="21" spans="2:11" ht="17" thickBot="1">
-      <c r="B21" s="178"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="181"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="179"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4463,29 +4612,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:J93"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="145" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="145" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="145" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="145" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="145" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="145" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="145" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="145"/>
-    <col min="10" max="10" width="136.33203125" style="145" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="145"/>
+    <col min="1" max="1" width="3.5" style="143" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="143" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="143" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="143" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="143" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="143" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="143" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="143"/>
+    <col min="10" max="10" width="136.33203125" style="143" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="143"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="17" thickBot="1"/>
     <row r="3" spans="2:10">
-      <c r="B3" s="146"/>
+      <c r="B3" s="144"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -4493,10 +4642,10 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="147"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="97"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
@@ -4508,476 +4657,476 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="148"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="151"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="149"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="14" t="s">
         <v>115</v>
       </c>
       <c r="D6" s="52"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150" t="s">
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="149"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="152">
+      <c r="E7" s="150">
         <v>10</v>
       </c>
-      <c r="F7" s="152" t="s">
+      <c r="F7" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="149"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="152">
+      <c r="E8" s="150">
         <v>10</v>
       </c>
-      <c r="F8" s="152" t="s">
+      <c r="F8" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="149"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="150">
         <v>4.18</v>
       </c>
-      <c r="F9" s="152" t="s">
+      <c r="F9" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="151"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="149"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="150" t="s">
+      <c r="D10" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="152">
+      <c r="E10" s="150">
         <v>10</v>
       </c>
-      <c r="F10" s="152" t="s">
+      <c r="F10" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="150" t="s">
+      <c r="G10" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="151"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="149"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="153">
+      <c r="E11" s="151">
         <f>E7*60*E8/E9/E10</f>
         <v>143.54066985645935</v>
       </c>
-      <c r="F11" s="152" t="s">
+      <c r="F11" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="151"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="149"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="153">
+      <c r="E12" s="151">
         <v>3600000</v>
       </c>
-      <c r="F12" s="152" t="s">
+      <c r="F12" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="151"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="149"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="154" t="str">
+      <c r="D13" s="152" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="150">
         <f>MROUND(E11*E10*E9/E12,0.0001)</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="F13" s="161" t="str">
+      <c r="F13" s="159" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
-      <c r="G13" s="150"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="151"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="149"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="151"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="149"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="152">
+      <c r="E15" s="150">
         <v>20</v>
       </c>
-      <c r="F15" s="152" t="s">
+      <c r="F15" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="151"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="149"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="149"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="152">
+      <c r="E16" s="150">
         <v>10</v>
       </c>
-      <c r="F16" s="152" t="s">
+      <c r="F16" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="151"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="149"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="149"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="150" t="s">
+      <c r="D17" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="152">
+      <c r="E17" s="150">
         <v>4.18</v>
       </c>
-      <c r="F17" s="152" t="s">
+      <c r="F17" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="149"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="149"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="150" t="s">
+      <c r="D18" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="150">
         <v>10</v>
       </c>
-      <c r="F18" s="152" t="s">
+      <c r="F18" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="150" t="s">
+      <c r="G18" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="149"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="149"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="150" t="s">
+      <c r="D19" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="153">
+      <c r="E19" s="151">
         <f>E15*60*E16/E17/E18</f>
         <v>287.08133971291869</v>
       </c>
-      <c r="F19" s="152" t="s">
+      <c r="F19" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="149"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="149"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="150" t="s">
+      <c r="D20" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="151">
         <v>3600000</v>
       </c>
-      <c r="F20" s="152" t="s">
+      <c r="F20" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="151"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="149"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="154" t="str">
+      <c r="D21" s="152" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="E21" s="152">
+      <c r="E21" s="150">
         <f>MROUND(E19*E18*E17/E20,0.0001)</f>
         <v>3.3E-3</v>
       </c>
-      <c r="F21" s="161" t="str">
+      <c r="F21" s="159" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="151"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="149"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="149"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="149"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="151"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="149"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="149"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="154" t="str">
+      <c r="D24" s="152" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="E24" s="145">
+      <c r="E24" s="143">
         <v>0</v>
       </c>
-      <c r="F24" s="161" t="str">
+      <c r="F24" s="159" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
-      <c r="G24" s="150" t="s">
+      <c r="G24" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="151"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="149"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="149"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150" t="str">
+      <c r="B25" s="147"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148" t="str">
         <f>Dashboard!C27</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="148">
         <v>1500</v>
       </c>
-      <c r="F25" s="150" t="s">
+      <c r="F25" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="151"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="149"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="149"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150" t="s">
+      <c r="B26" s="147"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="148">
         <v>13000</v>
       </c>
-      <c r="F26" s="150" t="s">
+      <c r="F26" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="149"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="149"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="170">
+      <c r="E27" s="168">
         <v>253.6</v>
       </c>
-      <c r="F27" s="150" t="s">
+      <c r="F27" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="150" t="s">
+      <c r="G27" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="149"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="171" t="str">
+      <c r="B28" s="147"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="169" t="str">
         <f>Dashboard!C25</f>
         <v>initial_investment</v>
       </c>
-      <c r="E28" s="172">
+      <c r="E28" s="170">
         <f>E26-E27</f>
         <v>12746.4</v>
       </c>
-      <c r="F28" s="150" t="s">
+      <c r="F28" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="151"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="149"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="149"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="151"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="149"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="151"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="149"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="149"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="151"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="149"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="149"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="151"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="149"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="149"/>
-      <c r="C33" s="167" t="s">
+      <c r="B33" s="147"/>
+      <c r="C33" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="167"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="149"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="149"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150" t="s">
+      <c r="B34" s="147"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148" t="s">
         <v>137</v>
       </c>
       <c r="E34">
@@ -4986,15 +5135,15 @@
       <c r="F34" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="151"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="149"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="149"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150" t="s">
+      <c r="B35" s="147"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148" t="s">
         <v>136</v>
       </c>
       <c r="E35">
@@ -5003,336 +5152,767 @@
       <c r="F35" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="151"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="149"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="149"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150">
+      <c r="B36" s="147"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148">
         <f>E34*E35</f>
         <v>41.8</v>
       </c>
-      <c r="F36" s="150" t="s">
+      <c r="F36" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="151"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="149"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="149"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150">
+      <c r="B37" s="147"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148">
         <v>3600000</v>
       </c>
-      <c r="F37" s="150" t="s">
+      <c r="F37" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="151"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="149"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="149"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="163">
+      <c r="B38" s="147"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="161">
         <f>E36/E37</f>
         <v>1.161111111111111E-5</v>
       </c>
-      <c r="F38" s="150" t="s">
+      <c r="F38" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="151"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="149"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="149"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="145">
+      <c r="B39" s="147"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="143">
         <v>500</v>
       </c>
-      <c r="F39" s="145" t="s">
+      <c r="F39" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="151"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="149"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="149"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150" t="s">
+      <c r="B40" s="147"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="150">
+      <c r="E40" s="148">
         <v>1159</v>
       </c>
-      <c r="F40" s="145" t="s">
+      <c r="F40" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="149"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="149"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150" t="s">
+      <c r="B41" s="147"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="164">
+      <c r="E41" s="162">
         <f>E40/1.21</f>
         <v>957.85123966942149</v>
       </c>
-      <c r="F41" s="145" t="s">
+      <c r="F41" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="151"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="149"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="149"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150" t="s">
+      <c r="B42" s="147"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="166">
+      <c r="E42" s="164">
         <f>E41/E39</f>
         <v>1.9157024793388431</v>
       </c>
-      <c r="F42" s="145" t="s">
+      <c r="F42" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="151"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="149"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="149"/>
-      <c r="C43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="151"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="149"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="149"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="154" t="str">
+      <c r="B44" s="147"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="152" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E44" s="165">
+      <c r="E44" s="163">
         <f>E42/E38</f>
         <v>164988.7302779865</v>
       </c>
-      <c r="F44" s="150" t="s">
+      <c r="F44" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="151"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="149"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="149"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="151"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="149"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="149"/>
-      <c r="C46" s="150"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="150"/>
-      <c r="J46" s="151"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="149"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="149"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="151"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="149"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="149"/>
+      <c r="B48" s="147"/>
       <c r="C48" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="150"/>
-      <c r="E48" s="145">
+      <c r="D48" s="148"/>
+      <c r="E48" s="143">
         <v>300</v>
       </c>
-      <c r="F48" s="145" t="s">
+      <c r="F48" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="151"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="149"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="149"/>
-      <c r="C49" s="150"/>
-      <c r="D49" s="150" t="s">
+      <c r="B49" s="147"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="164">
+      <c r="E49" s="162">
         <v>539</v>
       </c>
-      <c r="F49" s="145" t="s">
+      <c r="F49" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="150"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="151"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="149"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="149"/>
-      <c r="C50" s="150"/>
-      <c r="D50" s="150" t="s">
+      <c r="B50" s="147"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="166">
+      <c r="E50" s="164">
         <f>E49/E48</f>
         <v>1.7966666666666666</v>
       </c>
-      <c r="F50" s="145" t="s">
+      <c r="F50" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="151"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="149"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="149"/>
-      <c r="C51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="151"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
+      <c r="J51" s="149"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="149"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="154" t="str">
+      <c r="B52" s="147"/>
+      <c r="C52" s="148"/>
+      <c r="D52" s="152" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E52" s="165">
+      <c r="E52" s="163">
         <f>E50/E38</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="F52" s="150" t="s">
+      <c r="F52" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="151"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="148"/>
+      <c r="J52" s="149"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="149"/>
-      <c r="C53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="151"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="149"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="149"/>
-      <c r="C54" s="150"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="155"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="151"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="152"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="149"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="149"/>
-      <c r="C55" s="150"/>
-      <c r="D55" s="154"/>
-      <c r="E55" s="155"/>
-      <c r="F55" s="150"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="151"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="149"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="149"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="151"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="149"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="149"/>
-      <c r="C57" s="150"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="155"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="151"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="181">
+        <v>4628</v>
+      </c>
+      <c r="F57" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="181" t="s">
+        <v>169</v>
+      </c>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="149"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="149"/>
-      <c r="C58" s="14"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="151"/>
-    </row>
-    <row r="59" spans="2:10" ht="17" thickBot="1">
-      <c r="B59" s="156"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="158"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="181" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="181">
+        <v>573</v>
+      </c>
+      <c r="F58" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="149"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="147"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="181" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="181">
+        <f>E57+E58*E8</f>
+        <v>10358</v>
+      </c>
+      <c r="F59" s="181"/>
+      <c r="G59" s="181"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="149"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="147"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="181"/>
+      <c r="E60" s="181"/>
+      <c r="F60" s="181"/>
+      <c r="G60" s="181"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="149"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="147"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="181" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="181">
+        <v>8460</v>
+      </c>
+      <c r="F61" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="181" t="s">
+        <v>170</v>
+      </c>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="149"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="147"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="181" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="181">
+        <v>899</v>
+      </c>
+      <c r="F62" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" s="181" t="s">
+        <v>172</v>
+      </c>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="149"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="147"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="181" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="181">
+        <f>E61+E62*E8</f>
+        <v>17450</v>
+      </c>
+      <c r="F63" s="181"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="149"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="147"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="181"/>
+      <c r="E64" s="181"/>
+      <c r="F64" s="181"/>
+      <c r="G64" s="181"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="149"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="147"/>
+      <c r="C65" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="181" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="181">
+        <f>(E59+E63)/2</f>
+        <v>13904</v>
+      </c>
+      <c r="F65" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" s="181"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
+      <c r="J65" s="149"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="147"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="181" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" s="181"/>
+      <c r="F66" s="181"/>
+      <c r="G66" s="181"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="149"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="147"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="181"/>
+      <c r="E67" s="181"/>
+      <c r="F67" s="181"/>
+      <c r="G67" s="181"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="148"/>
+      <c r="J67" s="149"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="147"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="181" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="181"/>
+      <c r="F68" s="181"/>
+      <c r="G68" s="181"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="149"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="147"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="148"/>
+      <c r="F69" s="148"/>
+      <c r="G69" s="148"/>
+      <c r="H69" s="148"/>
+      <c r="I69" s="148"/>
+      <c r="J69" s="149"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="147"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="148"/>
+      <c r="E70" s="148"/>
+      <c r="F70" s="148"/>
+      <c r="G70" s="148"/>
+      <c r="H70" s="148"/>
+      <c r="I70" s="148"/>
+      <c r="J70" s="149"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="147"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="148"/>
+      <c r="H71" s="148"/>
+      <c r="I71" s="148"/>
+      <c r="J71" s="149"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="147"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="148"/>
+      <c r="E72" s="148"/>
+      <c r="F72" s="148"/>
+      <c r="G72" s="148"/>
+      <c r="H72" s="148"/>
+      <c r="I72" s="148"/>
+      <c r="J72" s="149"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="147"/>
+      <c r="C73" s="148"/>
+      <c r="D73" s="148"/>
+      <c r="E73" s="148"/>
+      <c r="F73" s="148"/>
+      <c r="G73" s="148"/>
+      <c r="H73" s="148"/>
+      <c r="I73" s="148"/>
+      <c r="J73" s="149"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="147"/>
+      <c r="C74" s="148"/>
+      <c r="D74" s="148"/>
+      <c r="E74" s="148"/>
+      <c r="F74" s="148"/>
+      <c r="G74" s="148"/>
+      <c r="H74" s="148"/>
+      <c r="I74" s="148"/>
+      <c r="J74" s="149"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="147"/>
+      <c r="C75" s="148"/>
+      <c r="D75" s="148"/>
+      <c r="E75" s="148"/>
+      <c r="F75" s="148"/>
+      <c r="G75" s="148"/>
+      <c r="H75" s="148"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="149"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="147"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="149"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="147"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
+      <c r="E77" s="148"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="148"/>
+      <c r="H77" s="148"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="149"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="147"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
+      <c r="E78" s="148"/>
+      <c r="F78" s="148"/>
+      <c r="G78" s="148"/>
+      <c r="H78" s="148"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="149"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="147"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
+      <c r="E79" s="148"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="148"/>
+      <c r="H79" s="148"/>
+      <c r="I79" s="148"/>
+      <c r="J79" s="149"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="147"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="148"/>
+      <c r="E80" s="148"/>
+      <c r="F80" s="148"/>
+      <c r="G80" s="148"/>
+      <c r="H80" s="148"/>
+      <c r="I80" s="148"/>
+      <c r="J80" s="149"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="147"/>
+      <c r="C81" s="148"/>
+      <c r="D81" s="148"/>
+      <c r="E81" s="148"/>
+      <c r="F81" s="148"/>
+      <c r="G81" s="148"/>
+      <c r="H81" s="148"/>
+      <c r="I81" s="148"/>
+      <c r="J81" s="149"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="147"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="148"/>
+      <c r="E82" s="148"/>
+      <c r="F82" s="148"/>
+      <c r="G82" s="148"/>
+      <c r="H82" s="148"/>
+      <c r="I82" s="148"/>
+      <c r="J82" s="149"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="147"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
+      <c r="F83" s="148"/>
+      <c r="G83" s="148"/>
+      <c r="H83" s="148"/>
+      <c r="I83" s="148"/>
+      <c r="J83" s="149"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="147"/>
+      <c r="C84" s="148"/>
+      <c r="D84" s="148"/>
+      <c r="E84" s="148"/>
+      <c r="F84" s="148"/>
+      <c r="G84" s="148"/>
+      <c r="H84" s="148"/>
+      <c r="I84" s="148"/>
+      <c r="J84" s="149"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="147"/>
+      <c r="C85" s="148"/>
+      <c r="D85" s="148"/>
+      <c r="E85" s="148"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="148"/>
+      <c r="H85" s="148"/>
+      <c r="I85" s="148"/>
+      <c r="J85" s="149"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="147"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="148"/>
+      <c r="E86" s="148"/>
+      <c r="F86" s="148"/>
+      <c r="G86" s="148"/>
+      <c r="H86" s="148"/>
+      <c r="I86" s="148"/>
+      <c r="J86" s="149"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="147"/>
+      <c r="C87" s="148"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="148"/>
+      <c r="F87" s="148"/>
+      <c r="G87" s="148"/>
+      <c r="H87" s="148"/>
+      <c r="I87" s="148"/>
+      <c r="J87" s="149"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="147"/>
+      <c r="C88" s="148"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="148"/>
+      <c r="F88" s="148"/>
+      <c r="G88" s="148"/>
+      <c r="H88" s="148"/>
+      <c r="I88" s="148"/>
+      <c r="J88" s="149"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="147"/>
+      <c r="C89" s="148"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="148"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="148"/>
+      <c r="H89" s="148"/>
+      <c r="I89" s="148"/>
+      <c r="J89" s="149"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="147"/>
+      <c r="C90" s="148"/>
+      <c r="D90" s="148"/>
+      <c r="E90" s="148"/>
+      <c r="F90" s="148"/>
+      <c r="G90" s="148"/>
+      <c r="H90" s="148"/>
+      <c r="I90" s="148"/>
+      <c r="J90" s="149"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="147"/>
+      <c r="C91" s="148"/>
+      <c r="D91" s="152"/>
+      <c r="E91" s="153"/>
+      <c r="F91" s="148"/>
+      <c r="G91" s="148"/>
+      <c r="H91" s="148"/>
+      <c r="I91" s="148"/>
+      <c r="J91" s="149"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="147"/>
+      <c r="C92" s="14"/>
+      <c r="F92" s="153"/>
+      <c r="G92" s="148"/>
+      <c r="H92" s="148"/>
+      <c r="I92" s="148"/>
+      <c r="J92" s="149"/>
+    </row>
+    <row r="93" spans="2:10" ht="17" thickBot="1">
+      <c r="B93" s="154"/>
+      <c r="C93" s="155"/>
+      <c r="D93" s="155"/>
+      <c r="E93" s="155"/>
+      <c r="F93" s="155"/>
+      <c r="G93" s="155"/>
+      <c r="H93" s="155"/>
+      <c r="I93" s="155"/>
+      <c r="J93" s="156"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
